--- a/20-excel-based/210-models/060-authorization-model.xlsx
+++ b/20-excel-based/210-models/060-authorization-model.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Complete Mock\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PMI\PMIetron_nikita\PMIeTron\20-excel-based\210-models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E971117B-97CD-466C-970B-602EBF200934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6BA493-2C0E-4CFC-BA0C-100105FCC496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="826" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ROLES!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">USERS!$A$1:$N$1</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3036" uniqueCount="263">
   <si>
     <t>Permissions</t>
   </si>
@@ -638,6 +638,204 @@
   </si>
   <si>
     <t>PMI_productVariantStatus</t>
+  </si>
+  <si>
+    <t>pmi_categoryownerteam</t>
+  </si>
+  <si>
+    <t>PMI Category Owner Team</t>
+  </si>
+  <si>
+    <t>pmi_gbprojectmanager</t>
+  </si>
+  <si>
+    <t>PMI GB Project Manager</t>
+  </si>
+  <si>
+    <t>pmi_globalseoteam</t>
+  </si>
+  <si>
+    <t>PMI Global SEO Team</t>
+  </si>
+  <si>
+    <t>pmigbcustomerserviceteam</t>
+  </si>
+  <si>
+    <t>PMI GB Customer Service team</t>
+  </si>
+  <si>
+    <t>pmigbfinanceteam</t>
+  </si>
+  <si>
+    <t>PMI GB Finance team</t>
+  </si>
+  <si>
+    <t>pmiitcommerce</t>
+  </si>
+  <si>
+    <t>PMI IT Commerce</t>
+  </si>
+  <si>
+    <t>connector</t>
+  </si>
+  <si>
+    <t>applicationlog</t>
+  </si>
+  <si>
+    <t>requestTracking</t>
+  </si>
+  <si>
+    <t>visualization</t>
+  </si>
+  <si>
+    <t>sysAddOnApp</t>
+  </si>
+  <si>
+    <t>PMI_nominalContentPerUnitofSales</t>
+  </si>
+  <si>
+    <t>PMI_productCategory</t>
+  </si>
+  <si>
+    <t>PMI_brand</t>
+  </si>
+  <si>
+    <t>PMI_createdBy</t>
+  </si>
+  <si>
+    <t>PMI_productModelType</t>
+  </si>
+  <si>
+    <t>PMI_productModelStatus</t>
+  </si>
+  <si>
+    <t>PMI_modelCode</t>
+  </si>
+  <si>
+    <t>PMI_unitofMeasure</t>
+  </si>
+  <si>
+    <t>PMI_productGroup</t>
+  </si>
+  <si>
+    <t>PMI_productModelCommercializationStatus</t>
+  </si>
+  <si>
+    <t>PMI_categoryownerenrichmentstatus</t>
+  </si>
+  <si>
+    <t>PMI_productForm</t>
+  </si>
+  <si>
+    <t>PMI_seoenrichmentstatus</t>
+  </si>
+  <si>
+    <t>PMI_POSBrandCode</t>
+  </si>
+  <si>
+    <t>PMI_productFamily</t>
+  </si>
+  <si>
+    <t>PMI_modifiedDate</t>
+  </si>
+  <si>
+    <t>PMI_itcommereceenrichmentstatus</t>
+  </si>
+  <si>
+    <t>PMI_brandDescription</t>
+  </si>
+  <si>
+    <t>PMI_b2cBrandCode</t>
+  </si>
+  <si>
+    <t>PMI_createdDate</t>
+  </si>
+  <si>
+    <t>PMI_SMDLBrandCode</t>
+  </si>
+  <si>
+    <t>PMI_productHierarchy</t>
+  </si>
+  <si>
+    <t>PMI_modelName</t>
+  </si>
+  <si>
+    <t>PMI_productSubFamily</t>
+  </si>
+  <si>
+    <t>PMI_nicotineConcentration</t>
+  </si>
+  <si>
+    <t>PMI_globalArticleName</t>
+  </si>
+  <si>
+    <t>PMI_flavor</t>
+  </si>
+  <si>
+    <t>PMI_body</t>
+  </si>
+  <si>
+    <t>PMI_globalArticleCode</t>
+  </si>
+  <si>
+    <t>PMI_deviceVersion</t>
+  </si>
+  <si>
+    <t>PMI_isVibrationEnabled</t>
+  </si>
+  <si>
+    <t>PMI_globalArticleStatus</t>
+  </si>
+  <si>
+    <t>PMI_productEdition</t>
+  </si>
+  <si>
+    <t>PMI_aroma</t>
+  </si>
+  <si>
+    <t>PMI_flavorDescription</t>
+  </si>
+  <si>
+    <t>PMI_intensity</t>
+  </si>
+  <si>
+    <t>PMI_globalArticleCommercializationStatus</t>
+  </si>
+  <si>
+    <t>PMI_globalProductColorGroup</t>
+  </si>
+  <si>
+    <t>PMI_cooling</t>
+  </si>
+  <si>
+    <t>PMI_hexColorCode</t>
+  </si>
+  <si>
+    <t>PMI_isBluetoothEnabled</t>
+  </si>
+  <si>
+    <t>PMI_globalProductColor</t>
+  </si>
+  <si>
+    <t>PMI_tankSize</t>
+  </si>
+  <si>
+    <t>PMI_minimumorderquantity</t>
+  </si>
+  <si>
+    <t>PMI_maximumorderquantity</t>
+  </si>
+  <si>
+    <t>PMI_actualcontentperunitofsales</t>
+  </si>
+  <si>
+    <t>PMI_replacementlevel1</t>
+  </si>
+  <si>
+    <t>PMI_replacementlevel2</t>
+  </si>
+  <si>
+    <t>PMI_replacementlevel3</t>
   </si>
 </sst>
 </file>
@@ -1747,10 +1945,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
@@ -1806,6 +2004,54 @@
       </c>
       <c r="C5" s="19" t="s">
         <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="21.75" customHeight="1">
+      <c r="B6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="21.75" customHeight="1">
+      <c r="B7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="21.75" customHeight="1">
+      <c r="B8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="21.75" customHeight="1">
+      <c r="B9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="21.75" customHeight="1">
+      <c r="B10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="21.75" customHeight="1">
+      <c r="B11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C11" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -1829,16 +2075,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:N61"/>
+  <dimension ref="A1:N154"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="2" max="2" width="25.296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
     <col min="4" max="4" width="14.09765625" customWidth="1"/>
     <col min="5" max="5" width="19.19921875" bestFit="1" customWidth="1"/>
@@ -2522,6 +2768,966 @@
         <v>123</v>
       </c>
     </row>
+    <row r="62" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B62" t="s">
+        <v>201</v>
+      </c>
+      <c r="C62" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B63" t="s">
+        <v>201</v>
+      </c>
+      <c r="C63" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B64" t="s">
+        <v>201</v>
+      </c>
+      <c r="C64" t="s">
+        <v>125</v>
+      </c>
+      <c r="G64" t="s">
+        <v>1</v>
+      </c>
+      <c r="H64" t="s">
+        <v>1</v>
+      </c>
+      <c r="I64" t="s">
+        <v>1</v>
+      </c>
+      <c r="J64" t="s">
+        <v>1</v>
+      </c>
+      <c r="K64" t="s">
+        <v>1</v>
+      </c>
+      <c r="L64" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B65" t="s">
+        <v>201</v>
+      </c>
+      <c r="C65" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B66" t="s">
+        <v>201</v>
+      </c>
+      <c r="C66" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B67" t="s">
+        <v>201</v>
+      </c>
+      <c r="C67" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B68" t="s">
+        <v>201</v>
+      </c>
+      <c r="C68" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B69" t="s">
+        <v>201</v>
+      </c>
+      <c r="C69" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B70" t="s">
+        <v>201</v>
+      </c>
+      <c r="C70" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B71" t="s">
+        <v>201</v>
+      </c>
+      <c r="C71" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B72" t="s">
+        <v>201</v>
+      </c>
+      <c r="C72" t="s">
+        <v>134</v>
+      </c>
+      <c r="G72" t="s">
+        <v>1</v>
+      </c>
+      <c r="H72" t="s">
+        <v>1</v>
+      </c>
+      <c r="I72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J72" t="s">
+        <v>1</v>
+      </c>
+      <c r="K72" t="s">
+        <v>1</v>
+      </c>
+      <c r="L72" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B73" t="s">
+        <v>201</v>
+      </c>
+      <c r="C73" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B74" t="s">
+        <v>201</v>
+      </c>
+      <c r="C74" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B75" t="s">
+        <v>201</v>
+      </c>
+      <c r="C75" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B76" t="s">
+        <v>201</v>
+      </c>
+      <c r="C76" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B77" t="s">
+        <v>201</v>
+      </c>
+      <c r="C77" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B78" t="s">
+        <v>201</v>
+      </c>
+      <c r="C78" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B79" t="s">
+        <v>201</v>
+      </c>
+      <c r="C79" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B80" t="s">
+        <v>201</v>
+      </c>
+      <c r="C80" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B81" t="s">
+        <v>197</v>
+      </c>
+      <c r="C81" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B82" t="s">
+        <v>197</v>
+      </c>
+      <c r="C82" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B83" t="s">
+        <v>197</v>
+      </c>
+      <c r="C83" t="s">
+        <v>125</v>
+      </c>
+      <c r="G83" t="s">
+        <v>1</v>
+      </c>
+      <c r="H83" t="s">
+        <v>1</v>
+      </c>
+      <c r="I83" t="s">
+        <v>1</v>
+      </c>
+      <c r="J83" t="s">
+        <v>1</v>
+      </c>
+      <c r="K83" t="s">
+        <v>1</v>
+      </c>
+      <c r="L83" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B84" t="s">
+        <v>197</v>
+      </c>
+      <c r="C84" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B85" t="s">
+        <v>197</v>
+      </c>
+      <c r="C85" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B86" t="s">
+        <v>197</v>
+      </c>
+      <c r="C86" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B87" t="s">
+        <v>197</v>
+      </c>
+      <c r="C87" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B88" t="s">
+        <v>197</v>
+      </c>
+      <c r="C88" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B89" t="s">
+        <v>197</v>
+      </c>
+      <c r="C89" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B90" t="s">
+        <v>197</v>
+      </c>
+      <c r="C90" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B91" t="s">
+        <v>197</v>
+      </c>
+      <c r="C91" t="s">
+        <v>134</v>
+      </c>
+      <c r="G91" t="s">
+        <v>1</v>
+      </c>
+      <c r="H91" t="s">
+        <v>1</v>
+      </c>
+      <c r="I91" t="s">
+        <v>1</v>
+      </c>
+      <c r="J91" t="s">
+        <v>1</v>
+      </c>
+      <c r="K91" t="s">
+        <v>1</v>
+      </c>
+      <c r="L91" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B92" t="s">
+        <v>197</v>
+      </c>
+      <c r="C92" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B93" t="s">
+        <v>197</v>
+      </c>
+      <c r="C93" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B94" t="s">
+        <v>197</v>
+      </c>
+      <c r="C94" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B95" t="s">
+        <v>197</v>
+      </c>
+      <c r="C95" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B96" t="s">
+        <v>197</v>
+      </c>
+      <c r="C96" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="97" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B97" t="s">
+        <v>197</v>
+      </c>
+      <c r="C97" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="98" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B98" t="s">
+        <v>197</v>
+      </c>
+      <c r="C98" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="99" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B99" t="s">
+        <v>197</v>
+      </c>
+      <c r="C99" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="100" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B100" t="s">
+        <v>199</v>
+      </c>
+      <c r="C100" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="101" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B101" t="s">
+        <v>199</v>
+      </c>
+      <c r="C101" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="102" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B102" t="s">
+        <v>199</v>
+      </c>
+      <c r="C102" t="s">
+        <v>125</v>
+      </c>
+      <c r="G102" t="s">
+        <v>1</v>
+      </c>
+      <c r="H102" t="s">
+        <v>1</v>
+      </c>
+      <c r="I102" t="s">
+        <v>1</v>
+      </c>
+      <c r="J102" t="s">
+        <v>1</v>
+      </c>
+      <c r="K102" t="s">
+        <v>1</v>
+      </c>
+      <c r="L102" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B103" t="s">
+        <v>199</v>
+      </c>
+      <c r="C103" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="104" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B104" t="s">
+        <v>199</v>
+      </c>
+      <c r="C104" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="105" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B105" t="s">
+        <v>199</v>
+      </c>
+      <c r="C105" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="106" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B106" t="s">
+        <v>199</v>
+      </c>
+      <c r="C106" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="107" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B107" t="s">
+        <v>199</v>
+      </c>
+      <c r="C107" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="108" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B108" t="s">
+        <v>199</v>
+      </c>
+      <c r="C108" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="109" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B109" t="s">
+        <v>199</v>
+      </c>
+      <c r="C109" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="110" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B110" t="s">
+        <v>199</v>
+      </c>
+      <c r="C110" t="s">
+        <v>134</v>
+      </c>
+      <c r="G110" t="s">
+        <v>1</v>
+      </c>
+      <c r="H110" t="s">
+        <v>1</v>
+      </c>
+      <c r="I110" t="s">
+        <v>1</v>
+      </c>
+      <c r="J110" t="s">
+        <v>1</v>
+      </c>
+      <c r="K110" t="s">
+        <v>1</v>
+      </c>
+      <c r="L110" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B111" t="s">
+        <v>199</v>
+      </c>
+      <c r="C111" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="112" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B112" t="s">
+        <v>199</v>
+      </c>
+      <c r="C112" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="113" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B113" t="s">
+        <v>199</v>
+      </c>
+      <c r="C113" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="114" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B114" t="s">
+        <v>199</v>
+      </c>
+      <c r="C114" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="115" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B115" t="s">
+        <v>199</v>
+      </c>
+      <c r="C115" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="116" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B116" t="s">
+        <v>199</v>
+      </c>
+      <c r="C116" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="117" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B117" t="s">
+        <v>199</v>
+      </c>
+      <c r="C117" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="118" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B118" t="s">
+        <v>199</v>
+      </c>
+      <c r="C118" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="119" spans="2:12" ht="15.6">
+      <c r="B119" t="s">
+        <v>203</v>
+      </c>
+      <c r="C119" t="s">
+        <v>125</v>
+      </c>
+      <c r="G119" t="s">
+        <v>1</v>
+      </c>
+      <c r="H119" t="s">
+        <v>3</v>
+      </c>
+      <c r="I119" t="s">
+        <v>3</v>
+      </c>
+      <c r="J119" t="s">
+        <v>3</v>
+      </c>
+      <c r="K119" t="s">
+        <v>3</v>
+      </c>
+      <c r="L119" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="2:12" ht="15.6">
+      <c r="B120" t="s">
+        <v>203</v>
+      </c>
+      <c r="C120" t="s">
+        <v>134</v>
+      </c>
+      <c r="G120" t="s">
+        <v>1</v>
+      </c>
+      <c r="H120" t="s">
+        <v>3</v>
+      </c>
+      <c r="I120" t="s">
+        <v>3</v>
+      </c>
+      <c r="J120" t="s">
+        <v>3</v>
+      </c>
+      <c r="K120" t="s">
+        <v>3</v>
+      </c>
+      <c r="L120" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="2:12" ht="15.6">
+      <c r="B121" t="s">
+        <v>203</v>
+      </c>
+      <c r="C121" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="122" spans="2:12" ht="15.6">
+      <c r="B122" t="s">
+        <v>203</v>
+      </c>
+      <c r="C122" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="123" spans="2:12" ht="15.6">
+      <c r="B123" t="s">
+        <v>203</v>
+      </c>
+      <c r="C123" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="124" spans="2:12" ht="15.6">
+      <c r="B124" t="s">
+        <v>203</v>
+      </c>
+      <c r="C124" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="2:12" ht="15.6">
+      <c r="B125" t="s">
+        <v>203</v>
+      </c>
+      <c r="C125" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="126" spans="2:12" ht="15.6">
+      <c r="B126" t="s">
+        <v>203</v>
+      </c>
+      <c r="C126" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="127" spans="2:12" ht="15.6">
+      <c r="B127" t="s">
+        <v>203</v>
+      </c>
+      <c r="C127" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="128" spans="2:12" ht="15.6">
+      <c r="B128" t="s">
+        <v>203</v>
+      </c>
+      <c r="C128" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="129" spans="2:12" ht="15.6">
+      <c r="B129" t="s">
+        <v>203</v>
+      </c>
+      <c r="C129" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="130" spans="2:12" ht="15.6">
+      <c r="B130" t="s">
+        <v>203</v>
+      </c>
+      <c r="C130" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="131" spans="2:12" ht="15.6">
+      <c r="B131" t="s">
+        <v>205</v>
+      </c>
+      <c r="C131" t="s">
+        <v>125</v>
+      </c>
+      <c r="G131" t="s">
+        <v>1</v>
+      </c>
+      <c r="H131" t="s">
+        <v>3</v>
+      </c>
+      <c r="I131" t="s">
+        <v>3</v>
+      </c>
+      <c r="J131" t="s">
+        <v>3</v>
+      </c>
+      <c r="K131" t="s">
+        <v>3</v>
+      </c>
+      <c r="L131" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="2:12" ht="15.6">
+      <c r="B132" t="s">
+        <v>205</v>
+      </c>
+      <c r="C132" t="s">
+        <v>134</v>
+      </c>
+      <c r="G132" t="s">
+        <v>1</v>
+      </c>
+      <c r="H132" t="s">
+        <v>3</v>
+      </c>
+      <c r="I132" t="s">
+        <v>3</v>
+      </c>
+      <c r="J132" t="s">
+        <v>3</v>
+      </c>
+      <c r="K132" t="s">
+        <v>3</v>
+      </c>
+      <c r="L132" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="2:12" ht="15.6">
+      <c r="B133" t="s">
+        <v>205</v>
+      </c>
+      <c r="C133" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="134" spans="2:12" ht="15.6">
+      <c r="B134" t="s">
+        <v>205</v>
+      </c>
+      <c r="C134" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="135" spans="2:12" ht="15.6">
+      <c r="B135" t="s">
+        <v>205</v>
+      </c>
+      <c r="C135" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="136" spans="2:12" ht="15.6">
+      <c r="B136" t="s">
+        <v>205</v>
+      </c>
+      <c r="C136" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="137" spans="2:12" ht="15.6">
+      <c r="B137" t="s">
+        <v>205</v>
+      </c>
+      <c r="C137" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="2:12" ht="15.6">
+      <c r="B138" t="s">
+        <v>205</v>
+      </c>
+      <c r="C138" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="139" spans="2:12" ht="15.6">
+      <c r="B139" t="s">
+        <v>205</v>
+      </c>
+      <c r="C139" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="140" spans="2:12" ht="15.6">
+      <c r="B140" t="s">
+        <v>205</v>
+      </c>
+      <c r="C140" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="141" spans="2:12" ht="15.6">
+      <c r="B141" t="s">
+        <v>205</v>
+      </c>
+      <c r="C141" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="142" spans="2:12" ht="15.6">
+      <c r="B142" t="s">
+        <v>205</v>
+      </c>
+      <c r="C142" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="143" spans="2:12" ht="15.6">
+      <c r="B143" t="s">
+        <v>207</v>
+      </c>
+      <c r="C143" t="s">
+        <v>125</v>
+      </c>
+      <c r="G143" t="s">
+        <v>1</v>
+      </c>
+      <c r="H143" t="s">
+        <v>3</v>
+      </c>
+      <c r="I143" t="s">
+        <v>3</v>
+      </c>
+      <c r="J143" t="s">
+        <v>3</v>
+      </c>
+      <c r="K143" t="s">
+        <v>3</v>
+      </c>
+      <c r="L143" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="2:12" ht="15.6">
+      <c r="B144" t="s">
+        <v>207</v>
+      </c>
+      <c r="C144" t="s">
+        <v>134</v>
+      </c>
+      <c r="G144" t="s">
+        <v>1</v>
+      </c>
+      <c r="H144" t="s">
+        <v>3</v>
+      </c>
+      <c r="I144" t="s">
+        <v>3</v>
+      </c>
+      <c r="J144" t="s">
+        <v>3</v>
+      </c>
+      <c r="K144" t="s">
+        <v>3</v>
+      </c>
+      <c r="L144" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" ht="15.6">
+      <c r="B145" t="s">
+        <v>207</v>
+      </c>
+      <c r="C145" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" ht="15.6">
+      <c r="B146" t="s">
+        <v>207</v>
+      </c>
+      <c r="C146" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" ht="15.6">
+      <c r="B147" t="s">
+        <v>207</v>
+      </c>
+      <c r="C147" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" ht="15.6">
+      <c r="B148" t="s">
+        <v>207</v>
+      </c>
+      <c r="C148" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" ht="15.6">
+      <c r="B149" t="s">
+        <v>207</v>
+      </c>
+      <c r="C149" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" ht="15.6">
+      <c r="B150" t="s">
+        <v>207</v>
+      </c>
+      <c r="C150" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" ht="15.6">
+      <c r="B151" t="s">
+        <v>207</v>
+      </c>
+      <c r="C151" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" ht="15.6">
+      <c r="B152" t="s">
+        <v>207</v>
+      </c>
+      <c r="C152" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" ht="15.6">
+      <c r="B153" t="s">
+        <v>207</v>
+      </c>
+      <c r="C153" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" ht="15.6">
+      <c r="B154" t="s">
+        <v>207</v>
+      </c>
+      <c r="C154" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:N61" xr:uid="{C31E01A7-EEE4-46A0-AAC1-2085A6797E77}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2533,13 +3739,13 @@
           <x14:formula1>
             <xm:f>'Reference Data'!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A1048576</xm:sqref>
+          <xm:sqref>A2:A61 A155:A1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0C69685E-A30F-4C2A-BD19-EF4D6A109468}">
           <x14:formula1>
             <xm:f>'Reference Data'!$C$2:$C$3</xm:f>
           </x14:formula1>
-          <xm:sqref>M2:N1048576</xm:sqref>
+          <xm:sqref>M2:N61 M155:N1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2549,10 +3755,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:L303"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="A292" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A301" sqref="A301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1"/>
@@ -3359,7 +4565,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="2:11" ht="21.75" customHeight="1">
+    <row r="33" spans="2:12" ht="21.75" customHeight="1">
       <c r="B33" t="s">
         <v>165</v>
       </c>
@@ -3385,7 +4591,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="2:11" ht="21.75" customHeight="1">
+    <row r="34" spans="2:12" ht="21.75" customHeight="1">
       <c r="B34" t="s">
         <v>165</v>
       </c>
@@ -3411,7 +4617,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="2:11" ht="21.75" customHeight="1">
+    <row r="35" spans="2:12" ht="21.75" customHeight="1">
       <c r="B35" t="s">
         <v>165</v>
       </c>
@@ -3437,7 +4643,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="2:11" ht="21.75" customHeight="1">
+    <row r="36" spans="2:12" ht="21.75" customHeight="1">
       <c r="B36" t="s">
         <v>165</v>
       </c>
@@ -3463,7 +4669,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="2:11" ht="21.75" customHeight="1">
+    <row r="37" spans="2:12" ht="21.75" customHeight="1">
       <c r="B37" t="s">
         <v>165</v>
       </c>
@@ -3489,7 +4695,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="2:11" ht="21.75" customHeight="1">
+    <row r="38" spans="2:12" ht="21.75" customHeight="1">
       <c r="B38" t="s">
         <v>165</v>
       </c>
@@ -3515,7 +4721,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="2:11" ht="21.75" customHeight="1">
+    <row r="39" spans="2:12" ht="21.75" customHeight="1">
       <c r="B39" t="s">
         <v>165</v>
       </c>
@@ -3541,7 +4747,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="2:11" ht="21.75" customHeight="1">
+    <row r="40" spans="2:12" ht="21.75" customHeight="1">
       <c r="B40" t="s">
         <v>165</v>
       </c>
@@ -3567,7 +4773,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="2:11" ht="21.75" customHeight="1">
+    <row r="41" spans="2:12" ht="21.75" customHeight="1">
       <c r="B41" t="s">
         <v>165</v>
       </c>
@@ -3593,7 +4799,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="2:11" ht="21.75" customHeight="1">
+    <row r="42" spans="2:12" ht="21.75" customHeight="1">
       <c r="B42" t="s">
         <v>165</v>
       </c>
@@ -3619,7 +4825,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="2:11" ht="21.75" customHeight="1">
+    <row r="43" spans="2:12" ht="21.75" customHeight="1">
       <c r="B43" t="s">
         <v>165</v>
       </c>
@@ -3645,7 +4851,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="2:11" ht="21.75" customHeight="1">
+    <row r="44" spans="2:12" ht="21.75" customHeight="1">
       <c r="B44" t="s">
         <v>167</v>
       </c>
@@ -3671,7 +4877,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="2:11" ht="21.75" customHeight="1">
+    <row r="45" spans="2:12" ht="21.75" customHeight="1">
       <c r="B45" t="s">
         <v>167</v>
       </c>
@@ -3694,6 +4900,6705 @@
         <v>26</v>
       </c>
       <c r="K45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B46" t="s">
+        <v>201</v>
+      </c>
+      <c r="C46" t="s">
+        <v>170</v>
+      </c>
+      <c r="G46" t="s">
+        <v>183</v>
+      </c>
+      <c r="H46" t="s">
+        <v>26</v>
+      </c>
+      <c r="I46" t="s">
+        <v>74</v>
+      </c>
+      <c r="J46" t="s">
+        <v>74</v>
+      </c>
+      <c r="K46" t="s">
+        <v>74</v>
+      </c>
+      <c r="L46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B47" t="s">
+        <v>201</v>
+      </c>
+      <c r="C47" t="s">
+        <v>170</v>
+      </c>
+      <c r="G47" t="s">
+        <v>214</v>
+      </c>
+      <c r="H47" t="s">
+        <v>26</v>
+      </c>
+      <c r="I47" t="s">
+        <v>74</v>
+      </c>
+      <c r="J47" t="s">
+        <v>74</v>
+      </c>
+      <c r="K47" t="s">
+        <v>74</v>
+      </c>
+      <c r="L47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B48" t="s">
+        <v>201</v>
+      </c>
+      <c r="C48" t="s">
+        <v>170</v>
+      </c>
+      <c r="G48" t="s">
+        <v>215</v>
+      </c>
+      <c r="H48" t="s">
+        <v>26</v>
+      </c>
+      <c r="I48" t="s">
+        <v>74</v>
+      </c>
+      <c r="J48" t="s">
+        <v>74</v>
+      </c>
+      <c r="K48" t="s">
+        <v>74</v>
+      </c>
+      <c r="L48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B49" t="s">
+        <v>201</v>
+      </c>
+      <c r="C49" t="s">
+        <v>170</v>
+      </c>
+      <c r="G49" t="s">
+        <v>176</v>
+      </c>
+      <c r="H49" t="s">
+        <v>26</v>
+      </c>
+      <c r="I49" t="s">
+        <v>26</v>
+      </c>
+      <c r="J49" t="s">
+        <v>26</v>
+      </c>
+      <c r="K49" t="s">
+        <v>74</v>
+      </c>
+      <c r="L49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B50" t="s">
+        <v>201</v>
+      </c>
+      <c r="C50" t="s">
+        <v>170</v>
+      </c>
+      <c r="G50" t="s">
+        <v>216</v>
+      </c>
+      <c r="H50" t="s">
+        <v>26</v>
+      </c>
+      <c r="I50" t="s">
+        <v>74</v>
+      </c>
+      <c r="J50" t="s">
+        <v>74</v>
+      </c>
+      <c r="K50" t="s">
+        <v>74</v>
+      </c>
+      <c r="L50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B51" t="s">
+        <v>201</v>
+      </c>
+      <c r="C51" t="s">
+        <v>170</v>
+      </c>
+      <c r="G51" t="s">
+        <v>217</v>
+      </c>
+      <c r="H51" t="s">
+        <v>26</v>
+      </c>
+      <c r="I51" t="s">
+        <v>74</v>
+      </c>
+      <c r="J51" t="s">
+        <v>74</v>
+      </c>
+      <c r="K51" t="s">
+        <v>74</v>
+      </c>
+      <c r="L51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B52" t="s">
+        <v>201</v>
+      </c>
+      <c r="C52" t="s">
+        <v>170</v>
+      </c>
+      <c r="G52" t="s">
+        <v>177</v>
+      </c>
+      <c r="H52" t="s">
+        <v>26</v>
+      </c>
+      <c r="I52" t="s">
+        <v>26</v>
+      </c>
+      <c r="J52" t="s">
+        <v>26</v>
+      </c>
+      <c r="K52" t="s">
+        <v>74</v>
+      </c>
+      <c r="L52" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B53" t="s">
+        <v>201</v>
+      </c>
+      <c r="C53" t="s">
+        <v>170</v>
+      </c>
+      <c r="G53" t="s">
+        <v>218</v>
+      </c>
+      <c r="H53" t="s">
+        <v>26</v>
+      </c>
+      <c r="I53" t="s">
+        <v>74</v>
+      </c>
+      <c r="J53" t="s">
+        <v>74</v>
+      </c>
+      <c r="K53" t="s">
+        <v>74</v>
+      </c>
+      <c r="L53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B54" t="s">
+        <v>201</v>
+      </c>
+      <c r="C54" t="s">
+        <v>170</v>
+      </c>
+      <c r="G54" t="s">
+        <v>219</v>
+      </c>
+      <c r="H54" t="s">
+        <v>26</v>
+      </c>
+      <c r="I54" t="s">
+        <v>74</v>
+      </c>
+      <c r="J54" t="s">
+        <v>74</v>
+      </c>
+      <c r="K54" t="s">
+        <v>74</v>
+      </c>
+      <c r="L54" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B55" t="s">
+        <v>201</v>
+      </c>
+      <c r="C55" t="s">
+        <v>170</v>
+      </c>
+      <c r="G55" t="s">
+        <v>220</v>
+      </c>
+      <c r="H55" t="s">
+        <v>26</v>
+      </c>
+      <c r="I55" t="s">
+        <v>74</v>
+      </c>
+      <c r="J55" t="s">
+        <v>74</v>
+      </c>
+      <c r="K55" t="s">
+        <v>74</v>
+      </c>
+      <c r="L55" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B56" t="s">
+        <v>201</v>
+      </c>
+      <c r="C56" t="s">
+        <v>170</v>
+      </c>
+      <c r="G56" t="s">
+        <v>221</v>
+      </c>
+      <c r="H56" t="s">
+        <v>26</v>
+      </c>
+      <c r="I56" t="s">
+        <v>74</v>
+      </c>
+      <c r="J56" t="s">
+        <v>74</v>
+      </c>
+      <c r="K56" t="s">
+        <v>74</v>
+      </c>
+      <c r="L56" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B57" t="s">
+        <v>201</v>
+      </c>
+      <c r="C57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G57" t="s">
+        <v>222</v>
+      </c>
+      <c r="H57" t="s">
+        <v>26</v>
+      </c>
+      <c r="I57" t="s">
+        <v>74</v>
+      </c>
+      <c r="J57" t="s">
+        <v>74</v>
+      </c>
+      <c r="K57" t="s">
+        <v>74</v>
+      </c>
+      <c r="L57" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B58" t="s">
+        <v>201</v>
+      </c>
+      <c r="C58" t="s">
+        <v>170</v>
+      </c>
+      <c r="G58" t="s">
+        <v>223</v>
+      </c>
+      <c r="H58" t="s">
+        <v>26</v>
+      </c>
+      <c r="I58" t="s">
+        <v>74</v>
+      </c>
+      <c r="J58" t="s">
+        <v>74</v>
+      </c>
+      <c r="K58" t="s">
+        <v>74</v>
+      </c>
+      <c r="L58" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B59" t="s">
+        <v>201</v>
+      </c>
+      <c r="C59" t="s">
+        <v>170</v>
+      </c>
+      <c r="G59" t="s">
+        <v>224</v>
+      </c>
+      <c r="H59" t="s">
+        <v>26</v>
+      </c>
+      <c r="I59" t="s">
+        <v>74</v>
+      </c>
+      <c r="J59" t="s">
+        <v>74</v>
+      </c>
+      <c r="K59" t="s">
+        <v>74</v>
+      </c>
+      <c r="L59" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B60" t="s">
+        <v>201</v>
+      </c>
+      <c r="C60" t="s">
+        <v>170</v>
+      </c>
+      <c r="G60" t="s">
+        <v>225</v>
+      </c>
+      <c r="H60" t="s">
+        <v>26</v>
+      </c>
+      <c r="I60" t="s">
+        <v>74</v>
+      </c>
+      <c r="J60" t="s">
+        <v>74</v>
+      </c>
+      <c r="K60" t="s">
+        <v>74</v>
+      </c>
+      <c r="L60" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B61" t="s">
+        <v>201</v>
+      </c>
+      <c r="C61" t="s">
+        <v>170</v>
+      </c>
+      <c r="G61" t="s">
+        <v>226</v>
+      </c>
+      <c r="H61" t="s">
+        <v>26</v>
+      </c>
+      <c r="I61" t="s">
+        <v>74</v>
+      </c>
+      <c r="J61" t="s">
+        <v>74</v>
+      </c>
+      <c r="K61" t="s">
+        <v>74</v>
+      </c>
+      <c r="L61" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B62" t="s">
+        <v>201</v>
+      </c>
+      <c r="C62" t="s">
+        <v>170</v>
+      </c>
+      <c r="G62" t="s">
+        <v>227</v>
+      </c>
+      <c r="H62" t="s">
+        <v>26</v>
+      </c>
+      <c r="I62" t="s">
+        <v>74</v>
+      </c>
+      <c r="J62" t="s">
+        <v>74</v>
+      </c>
+      <c r="K62" t="s">
+        <v>74</v>
+      </c>
+      <c r="L62" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B63" t="s">
+        <v>201</v>
+      </c>
+      <c r="C63" t="s">
+        <v>170</v>
+      </c>
+      <c r="G63" t="s">
+        <v>228</v>
+      </c>
+      <c r="H63" t="s">
+        <v>26</v>
+      </c>
+      <c r="I63" t="s">
+        <v>74</v>
+      </c>
+      <c r="J63" t="s">
+        <v>74</v>
+      </c>
+      <c r="K63" t="s">
+        <v>74</v>
+      </c>
+      <c r="L63" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B64" t="s">
+        <v>201</v>
+      </c>
+      <c r="C64" t="s">
+        <v>170</v>
+      </c>
+      <c r="G64" t="s">
+        <v>229</v>
+      </c>
+      <c r="H64" t="s">
+        <v>26</v>
+      </c>
+      <c r="I64" t="s">
+        <v>74</v>
+      </c>
+      <c r="J64" t="s">
+        <v>74</v>
+      </c>
+      <c r="K64" t="s">
+        <v>74</v>
+      </c>
+      <c r="L64" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B65" t="s">
+        <v>201</v>
+      </c>
+      <c r="C65" t="s">
+        <v>170</v>
+      </c>
+      <c r="G65" t="s">
+        <v>173</v>
+      </c>
+      <c r="H65" t="s">
+        <v>26</v>
+      </c>
+      <c r="I65" t="s">
+        <v>74</v>
+      </c>
+      <c r="J65" t="s">
+        <v>74</v>
+      </c>
+      <c r="K65" t="s">
+        <v>74</v>
+      </c>
+      <c r="L65" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B66" t="s">
+        <v>201</v>
+      </c>
+      <c r="C66" t="s">
+        <v>170</v>
+      </c>
+      <c r="G66" t="s">
+        <v>230</v>
+      </c>
+      <c r="H66" t="s">
+        <v>26</v>
+      </c>
+      <c r="I66" t="s">
+        <v>74</v>
+      </c>
+      <c r="J66" t="s">
+        <v>74</v>
+      </c>
+      <c r="K66" t="s">
+        <v>74</v>
+      </c>
+      <c r="L66" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B67" t="s">
+        <v>201</v>
+      </c>
+      <c r="C67" t="s">
+        <v>170</v>
+      </c>
+      <c r="G67" t="s">
+        <v>175</v>
+      </c>
+      <c r="H67" t="s">
+        <v>26</v>
+      </c>
+      <c r="I67" t="s">
+        <v>26</v>
+      </c>
+      <c r="J67" t="s">
+        <v>26</v>
+      </c>
+      <c r="K67" t="s">
+        <v>74</v>
+      </c>
+      <c r="L67" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B68" t="s">
+        <v>201</v>
+      </c>
+      <c r="C68" t="s">
+        <v>170</v>
+      </c>
+      <c r="G68" t="s">
+        <v>231</v>
+      </c>
+      <c r="H68" t="s">
+        <v>26</v>
+      </c>
+      <c r="I68" t="s">
+        <v>74</v>
+      </c>
+      <c r="J68" t="s">
+        <v>74</v>
+      </c>
+      <c r="K68" t="s">
+        <v>74</v>
+      </c>
+      <c r="L68" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B69" t="s">
+        <v>201</v>
+      </c>
+      <c r="C69" t="s">
+        <v>170</v>
+      </c>
+      <c r="G69" t="s">
+        <v>172</v>
+      </c>
+      <c r="H69" t="s">
+        <v>26</v>
+      </c>
+      <c r="I69" t="s">
+        <v>74</v>
+      </c>
+      <c r="J69" t="s">
+        <v>74</v>
+      </c>
+      <c r="K69" t="s">
+        <v>74</v>
+      </c>
+      <c r="L69" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B70" t="s">
+        <v>201</v>
+      </c>
+      <c r="C70" t="s">
+        <v>170</v>
+      </c>
+      <c r="G70" t="s">
+        <v>232</v>
+      </c>
+      <c r="H70" t="s">
+        <v>26</v>
+      </c>
+      <c r="I70" t="s">
+        <v>74</v>
+      </c>
+      <c r="J70" t="s">
+        <v>74</v>
+      </c>
+      <c r="K70" t="s">
+        <v>74</v>
+      </c>
+      <c r="L70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B71" t="s">
+        <v>201</v>
+      </c>
+      <c r="C71" t="s">
+        <v>170</v>
+      </c>
+      <c r="G71" t="s">
+        <v>233</v>
+      </c>
+      <c r="H71" t="s">
+        <v>26</v>
+      </c>
+      <c r="I71" t="s">
+        <v>74</v>
+      </c>
+      <c r="J71" t="s">
+        <v>74</v>
+      </c>
+      <c r="K71" t="s">
+        <v>74</v>
+      </c>
+      <c r="L71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B72" t="s">
+        <v>201</v>
+      </c>
+      <c r="C72" t="s">
+        <v>170</v>
+      </c>
+      <c r="G72" t="s">
+        <v>234</v>
+      </c>
+      <c r="H72" t="s">
+        <v>26</v>
+      </c>
+      <c r="I72" t="s">
+        <v>74</v>
+      </c>
+      <c r="J72" t="s">
+        <v>74</v>
+      </c>
+      <c r="K72" t="s">
+        <v>74</v>
+      </c>
+      <c r="L72" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B73" t="s">
+        <v>201</v>
+      </c>
+      <c r="C73" t="s">
+        <v>170</v>
+      </c>
+      <c r="G73" t="s">
+        <v>235</v>
+      </c>
+      <c r="H73" t="s">
+        <v>26</v>
+      </c>
+      <c r="I73" t="s">
+        <v>74</v>
+      </c>
+      <c r="J73" t="s">
+        <v>74</v>
+      </c>
+      <c r="K73" t="s">
+        <v>74</v>
+      </c>
+      <c r="L73" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B74" t="s">
+        <v>201</v>
+      </c>
+      <c r="C74" t="s">
+        <v>170</v>
+      </c>
+      <c r="G74" t="s">
+        <v>236</v>
+      </c>
+      <c r="H74" t="s">
+        <v>26</v>
+      </c>
+      <c r="I74" t="s">
+        <v>74</v>
+      </c>
+      <c r="J74" t="s">
+        <v>74</v>
+      </c>
+      <c r="K74" t="s">
+        <v>74</v>
+      </c>
+      <c r="L74" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B75" t="s">
+        <v>201</v>
+      </c>
+      <c r="C75" t="s">
+        <v>170</v>
+      </c>
+      <c r="G75" t="s">
+        <v>237</v>
+      </c>
+      <c r="H75" t="s">
+        <v>26</v>
+      </c>
+      <c r="I75" t="s">
+        <v>74</v>
+      </c>
+      <c r="J75" t="s">
+        <v>74</v>
+      </c>
+      <c r="K75" t="s">
+        <v>74</v>
+      </c>
+      <c r="L75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B76" t="s">
+        <v>201</v>
+      </c>
+      <c r="C76" t="s">
+        <v>171</v>
+      </c>
+      <c r="G76" t="s">
+        <v>183</v>
+      </c>
+      <c r="H76" t="s">
+        <v>26</v>
+      </c>
+      <c r="I76" t="s">
+        <v>74</v>
+      </c>
+      <c r="J76" t="s">
+        <v>74</v>
+      </c>
+      <c r="K76" t="s">
+        <v>74</v>
+      </c>
+      <c r="L76" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B77" t="s">
+        <v>201</v>
+      </c>
+      <c r="C77" t="s">
+        <v>171</v>
+      </c>
+      <c r="G77" t="s">
+        <v>238</v>
+      </c>
+      <c r="H77" t="s">
+        <v>26</v>
+      </c>
+      <c r="I77" t="s">
+        <v>74</v>
+      </c>
+      <c r="J77" t="s">
+        <v>74</v>
+      </c>
+      <c r="K77" t="s">
+        <v>74</v>
+      </c>
+      <c r="L77" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B78" t="s">
+        <v>201</v>
+      </c>
+      <c r="C78" t="s">
+        <v>171</v>
+      </c>
+      <c r="G78" t="s">
+        <v>239</v>
+      </c>
+      <c r="H78" t="s">
+        <v>26</v>
+      </c>
+      <c r="I78" t="s">
+        <v>74</v>
+      </c>
+      <c r="J78" t="s">
+        <v>74</v>
+      </c>
+      <c r="K78" t="s">
+        <v>74</v>
+      </c>
+      <c r="L78" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B79" t="s">
+        <v>201</v>
+      </c>
+      <c r="C79" t="s">
+        <v>171</v>
+      </c>
+      <c r="G79" t="s">
+        <v>240</v>
+      </c>
+      <c r="H79" t="s">
+        <v>26</v>
+      </c>
+      <c r="I79" t="s">
+        <v>74</v>
+      </c>
+      <c r="J79" t="s">
+        <v>74</v>
+      </c>
+      <c r="K79" t="s">
+        <v>74</v>
+      </c>
+      <c r="L79" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B80" t="s">
+        <v>201</v>
+      </c>
+      <c r="C80" t="s">
+        <v>171</v>
+      </c>
+      <c r="G80" t="s">
+        <v>241</v>
+      </c>
+      <c r="H80" t="s">
+        <v>26</v>
+      </c>
+      <c r="I80" t="s">
+        <v>74</v>
+      </c>
+      <c r="J80" t="s">
+        <v>74</v>
+      </c>
+      <c r="K80" t="s">
+        <v>74</v>
+      </c>
+      <c r="L80" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B81" t="s">
+        <v>201</v>
+      </c>
+      <c r="C81" t="s">
+        <v>171</v>
+      </c>
+      <c r="G81" t="s">
+        <v>216</v>
+      </c>
+      <c r="H81" t="s">
+        <v>26</v>
+      </c>
+      <c r="I81" t="s">
+        <v>74</v>
+      </c>
+      <c r="J81" t="s">
+        <v>74</v>
+      </c>
+      <c r="K81" t="s">
+        <v>74</v>
+      </c>
+      <c r="L81" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B82" t="s">
+        <v>201</v>
+      </c>
+      <c r="C82" t="s">
+        <v>171</v>
+      </c>
+      <c r="G82" t="s">
+        <v>218</v>
+      </c>
+      <c r="H82" t="s">
+        <v>26</v>
+      </c>
+      <c r="I82" t="s">
+        <v>74</v>
+      </c>
+      <c r="J82" t="s">
+        <v>74</v>
+      </c>
+      <c r="K82" t="s">
+        <v>74</v>
+      </c>
+      <c r="L82" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B83" t="s">
+        <v>201</v>
+      </c>
+      <c r="C83" t="s">
+        <v>171</v>
+      </c>
+      <c r="G83" t="s">
+        <v>242</v>
+      </c>
+      <c r="H83" t="s">
+        <v>26</v>
+      </c>
+      <c r="I83" t="s">
+        <v>74</v>
+      </c>
+      <c r="J83" t="s">
+        <v>74</v>
+      </c>
+      <c r="K83" t="s">
+        <v>74</v>
+      </c>
+      <c r="L83" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B84" t="s">
+        <v>201</v>
+      </c>
+      <c r="C84" t="s">
+        <v>171</v>
+      </c>
+      <c r="G84" t="s">
+        <v>243</v>
+      </c>
+      <c r="H84" t="s">
+        <v>26</v>
+      </c>
+      <c r="I84" t="s">
+        <v>74</v>
+      </c>
+      <c r="J84" t="s">
+        <v>74</v>
+      </c>
+      <c r="K84" t="s">
+        <v>74</v>
+      </c>
+      <c r="L84" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B85" t="s">
+        <v>201</v>
+      </c>
+      <c r="C85" t="s">
+        <v>171</v>
+      </c>
+      <c r="G85" t="s">
+        <v>219</v>
+      </c>
+      <c r="H85" t="s">
+        <v>26</v>
+      </c>
+      <c r="I85" t="s">
+        <v>74</v>
+      </c>
+      <c r="J85" t="s">
+        <v>74</v>
+      </c>
+      <c r="K85" t="s">
+        <v>74</v>
+      </c>
+      <c r="L85" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B86" t="s">
+        <v>201</v>
+      </c>
+      <c r="C86" t="s">
+        <v>171</v>
+      </c>
+      <c r="G86" t="s">
+        <v>244</v>
+      </c>
+      <c r="H86" t="s">
+        <v>26</v>
+      </c>
+      <c r="I86" t="s">
+        <v>74</v>
+      </c>
+      <c r="J86" t="s">
+        <v>74</v>
+      </c>
+      <c r="K86" t="s">
+        <v>74</v>
+      </c>
+      <c r="L86" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B87" t="s">
+        <v>201</v>
+      </c>
+      <c r="C87" t="s">
+        <v>171</v>
+      </c>
+      <c r="G87" t="s">
+        <v>245</v>
+      </c>
+      <c r="H87" t="s">
+        <v>26</v>
+      </c>
+      <c r="I87" t="s">
+        <v>74</v>
+      </c>
+      <c r="J87" t="s">
+        <v>74</v>
+      </c>
+      <c r="K87" t="s">
+        <v>74</v>
+      </c>
+      <c r="L87" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B88" t="s">
+        <v>201</v>
+      </c>
+      <c r="C88" t="s">
+        <v>171</v>
+      </c>
+      <c r="G88" t="s">
+        <v>224</v>
+      </c>
+      <c r="H88" t="s">
+        <v>26</v>
+      </c>
+      <c r="I88" t="s">
+        <v>74</v>
+      </c>
+      <c r="J88" t="s">
+        <v>74</v>
+      </c>
+      <c r="K88" t="s">
+        <v>74</v>
+      </c>
+      <c r="L88" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B89" t="s">
+        <v>201</v>
+      </c>
+      <c r="C89" t="s">
+        <v>171</v>
+      </c>
+      <c r="G89" t="s">
+        <v>225</v>
+      </c>
+      <c r="H89" t="s">
+        <v>26</v>
+      </c>
+      <c r="I89" t="s">
+        <v>74</v>
+      </c>
+      <c r="J89" t="s">
+        <v>74</v>
+      </c>
+      <c r="K89" t="s">
+        <v>74</v>
+      </c>
+      <c r="L89" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B90" t="s">
+        <v>201</v>
+      </c>
+      <c r="C90" t="s">
+        <v>171</v>
+      </c>
+      <c r="G90" t="s">
+        <v>226</v>
+      </c>
+      <c r="H90" t="s">
+        <v>26</v>
+      </c>
+      <c r="I90" t="s">
+        <v>74</v>
+      </c>
+      <c r="J90" t="s">
+        <v>74</v>
+      </c>
+      <c r="K90" t="s">
+        <v>74</v>
+      </c>
+      <c r="L90" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B91" t="s">
+        <v>201</v>
+      </c>
+      <c r="C91" t="s">
+        <v>171</v>
+      </c>
+      <c r="G91" t="s">
+        <v>229</v>
+      </c>
+      <c r="H91" t="s">
+        <v>26</v>
+      </c>
+      <c r="I91" t="s">
+        <v>74</v>
+      </c>
+      <c r="J91" t="s">
+        <v>74</v>
+      </c>
+      <c r="K91" t="s">
+        <v>74</v>
+      </c>
+      <c r="L91" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B92" t="s">
+        <v>201</v>
+      </c>
+      <c r="C92" t="s">
+        <v>171</v>
+      </c>
+      <c r="G92" t="s">
+        <v>231</v>
+      </c>
+      <c r="H92" t="s">
+        <v>26</v>
+      </c>
+      <c r="I92" t="s">
+        <v>74</v>
+      </c>
+      <c r="J92" t="s">
+        <v>74</v>
+      </c>
+      <c r="K92" t="s">
+        <v>74</v>
+      </c>
+      <c r="L92" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B93" t="s">
+        <v>201</v>
+      </c>
+      <c r="C93" t="s">
+        <v>171</v>
+      </c>
+      <c r="G93" t="s">
+        <v>246</v>
+      </c>
+      <c r="H93" t="s">
+        <v>26</v>
+      </c>
+      <c r="I93" t="s">
+        <v>74</v>
+      </c>
+      <c r="J93" t="s">
+        <v>74</v>
+      </c>
+      <c r="K93" t="s">
+        <v>74</v>
+      </c>
+      <c r="L93" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B94" t="s">
+        <v>201</v>
+      </c>
+      <c r="C94" t="s">
+        <v>171</v>
+      </c>
+      <c r="G94" t="s">
+        <v>247</v>
+      </c>
+      <c r="H94" t="s">
+        <v>26</v>
+      </c>
+      <c r="I94" t="s">
+        <v>74</v>
+      </c>
+      <c r="J94" t="s">
+        <v>74</v>
+      </c>
+      <c r="K94" t="s">
+        <v>74</v>
+      </c>
+      <c r="L94" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B95" t="s">
+        <v>201</v>
+      </c>
+      <c r="C95" t="s">
+        <v>171</v>
+      </c>
+      <c r="G95" t="s">
+        <v>172</v>
+      </c>
+      <c r="H95" t="s">
+        <v>26</v>
+      </c>
+      <c r="I95" t="s">
+        <v>74</v>
+      </c>
+      <c r="J95" t="s">
+        <v>74</v>
+      </c>
+      <c r="K95" t="s">
+        <v>74</v>
+      </c>
+      <c r="L95" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B96" t="s">
+        <v>201</v>
+      </c>
+      <c r="C96" t="s">
+        <v>171</v>
+      </c>
+      <c r="G96" t="s">
+        <v>233</v>
+      </c>
+      <c r="H96" t="s">
+        <v>26</v>
+      </c>
+      <c r="I96" t="s">
+        <v>74</v>
+      </c>
+      <c r="J96" t="s">
+        <v>74</v>
+      </c>
+      <c r="K96" t="s">
+        <v>74</v>
+      </c>
+      <c r="L96" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="97" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B97" t="s">
+        <v>201</v>
+      </c>
+      <c r="C97" t="s">
+        <v>171</v>
+      </c>
+      <c r="G97" t="s">
+        <v>248</v>
+      </c>
+      <c r="H97" t="s">
+        <v>26</v>
+      </c>
+      <c r="I97" t="s">
+        <v>74</v>
+      </c>
+      <c r="J97" t="s">
+        <v>74</v>
+      </c>
+      <c r="K97" t="s">
+        <v>74</v>
+      </c>
+      <c r="L97" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="98" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B98" t="s">
+        <v>201</v>
+      </c>
+      <c r="C98" t="s">
+        <v>171</v>
+      </c>
+      <c r="G98" t="s">
+        <v>235</v>
+      </c>
+      <c r="H98" t="s">
+        <v>26</v>
+      </c>
+      <c r="I98" t="s">
+        <v>74</v>
+      </c>
+      <c r="J98" t="s">
+        <v>74</v>
+      </c>
+      <c r="K98" t="s">
+        <v>74</v>
+      </c>
+      <c r="L98" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="99" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B99" t="s">
+        <v>201</v>
+      </c>
+      <c r="C99" t="s">
+        <v>171</v>
+      </c>
+      <c r="G99" t="s">
+        <v>249</v>
+      </c>
+      <c r="H99" t="s">
+        <v>26</v>
+      </c>
+      <c r="I99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J99" t="s">
+        <v>74</v>
+      </c>
+      <c r="K99" t="s">
+        <v>74</v>
+      </c>
+      <c r="L99" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="100" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B100" t="s">
+        <v>201</v>
+      </c>
+      <c r="C100" t="s">
+        <v>171</v>
+      </c>
+      <c r="G100" t="s">
+        <v>236</v>
+      </c>
+      <c r="H100" t="s">
+        <v>26</v>
+      </c>
+      <c r="I100" t="s">
+        <v>74</v>
+      </c>
+      <c r="J100" t="s">
+        <v>74</v>
+      </c>
+      <c r="K100" t="s">
+        <v>74</v>
+      </c>
+      <c r="L100" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="101" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B101" t="s">
+        <v>201</v>
+      </c>
+      <c r="C101" t="s">
+        <v>171</v>
+      </c>
+      <c r="G101" t="s">
+        <v>250</v>
+      </c>
+      <c r="H101" t="s">
+        <v>26</v>
+      </c>
+      <c r="I101" t="s">
+        <v>74</v>
+      </c>
+      <c r="J101" t="s">
+        <v>74</v>
+      </c>
+      <c r="K101" t="s">
+        <v>74</v>
+      </c>
+      <c r="L101" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="102" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B102" t="s">
+        <v>201</v>
+      </c>
+      <c r="C102" t="s">
+        <v>171</v>
+      </c>
+      <c r="G102" t="s">
+        <v>251</v>
+      </c>
+      <c r="H102" t="s">
+        <v>26</v>
+      </c>
+      <c r="I102" t="s">
+        <v>74</v>
+      </c>
+      <c r="J102" t="s">
+        <v>74</v>
+      </c>
+      <c r="K102" t="s">
+        <v>74</v>
+      </c>
+      <c r="L102" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="103" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B103" t="s">
+        <v>201</v>
+      </c>
+      <c r="C103" t="s">
+        <v>171</v>
+      </c>
+      <c r="G103" t="s">
+        <v>252</v>
+      </c>
+      <c r="H103" t="s">
+        <v>26</v>
+      </c>
+      <c r="I103" t="s">
+        <v>74</v>
+      </c>
+      <c r="J103" t="s">
+        <v>74</v>
+      </c>
+      <c r="K103" t="s">
+        <v>74</v>
+      </c>
+      <c r="L103" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="104" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B104" t="s">
+        <v>201</v>
+      </c>
+      <c r="C104" t="s">
+        <v>171</v>
+      </c>
+      <c r="G104" t="s">
+        <v>214</v>
+      </c>
+      <c r="H104" t="s">
+        <v>26</v>
+      </c>
+      <c r="I104" t="s">
+        <v>74</v>
+      </c>
+      <c r="J104" t="s">
+        <v>74</v>
+      </c>
+      <c r="K104" t="s">
+        <v>74</v>
+      </c>
+      <c r="L104" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="105" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B105" t="s">
+        <v>201</v>
+      </c>
+      <c r="C105" t="s">
+        <v>171</v>
+      </c>
+      <c r="G105" t="s">
+        <v>215</v>
+      </c>
+      <c r="H105" t="s">
+        <v>26</v>
+      </c>
+      <c r="I105" t="s">
+        <v>74</v>
+      </c>
+      <c r="J105" t="s">
+        <v>74</v>
+      </c>
+      <c r="K105" t="s">
+        <v>74</v>
+      </c>
+      <c r="L105" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="106" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B106" t="s">
+        <v>201</v>
+      </c>
+      <c r="C106" t="s">
+        <v>171</v>
+      </c>
+      <c r="G106" t="s">
+        <v>253</v>
+      </c>
+      <c r="H106" t="s">
+        <v>26</v>
+      </c>
+      <c r="I106" t="s">
+        <v>74</v>
+      </c>
+      <c r="J106" t="s">
+        <v>74</v>
+      </c>
+      <c r="K106" t="s">
+        <v>74</v>
+      </c>
+      <c r="L106" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="107" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B107" t="s">
+        <v>201</v>
+      </c>
+      <c r="C107" t="s">
+        <v>171</v>
+      </c>
+      <c r="G107" t="s">
+        <v>176</v>
+      </c>
+      <c r="H107" t="s">
+        <v>26</v>
+      </c>
+      <c r="I107" t="s">
+        <v>26</v>
+      </c>
+      <c r="J107" t="s">
+        <v>26</v>
+      </c>
+      <c r="K107" t="s">
+        <v>74</v>
+      </c>
+      <c r="L107" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="108" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B108" t="s">
+        <v>201</v>
+      </c>
+      <c r="C108" t="s">
+        <v>171</v>
+      </c>
+      <c r="G108" t="s">
+        <v>174</v>
+      </c>
+      <c r="H108" t="s">
+        <v>26</v>
+      </c>
+      <c r="I108" t="s">
+        <v>74</v>
+      </c>
+      <c r="J108" t="s">
+        <v>74</v>
+      </c>
+      <c r="K108" t="s">
+        <v>74</v>
+      </c>
+      <c r="L108" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="109" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B109" t="s">
+        <v>201</v>
+      </c>
+      <c r="C109" t="s">
+        <v>171</v>
+      </c>
+      <c r="G109" t="s">
+        <v>217</v>
+      </c>
+      <c r="H109" t="s">
+        <v>26</v>
+      </c>
+      <c r="I109" t="s">
+        <v>74</v>
+      </c>
+      <c r="J109" t="s">
+        <v>74</v>
+      </c>
+      <c r="K109" t="s">
+        <v>74</v>
+      </c>
+      <c r="L109" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="110" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B110" t="s">
+        <v>201</v>
+      </c>
+      <c r="C110" t="s">
+        <v>171</v>
+      </c>
+      <c r="G110" t="s">
+        <v>177</v>
+      </c>
+      <c r="H110" t="s">
+        <v>26</v>
+      </c>
+      <c r="I110" t="s">
+        <v>26</v>
+      </c>
+      <c r="J110" t="s">
+        <v>26</v>
+      </c>
+      <c r="K110" t="s">
+        <v>74</v>
+      </c>
+      <c r="L110" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="111" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B111" t="s">
+        <v>201</v>
+      </c>
+      <c r="C111" t="s">
+        <v>171</v>
+      </c>
+      <c r="G111" t="s">
+        <v>220</v>
+      </c>
+      <c r="H111" t="s">
+        <v>26</v>
+      </c>
+      <c r="I111" t="s">
+        <v>74</v>
+      </c>
+      <c r="J111" t="s">
+        <v>74</v>
+      </c>
+      <c r="K111" t="s">
+        <v>74</v>
+      </c>
+      <c r="L111" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="112" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B112" t="s">
+        <v>201</v>
+      </c>
+      <c r="C112" t="s">
+        <v>171</v>
+      </c>
+      <c r="G112" t="s">
+        <v>221</v>
+      </c>
+      <c r="H112" t="s">
+        <v>26</v>
+      </c>
+      <c r="I112" t="s">
+        <v>74</v>
+      </c>
+      <c r="J112" t="s">
+        <v>74</v>
+      </c>
+      <c r="K112" t="s">
+        <v>74</v>
+      </c>
+      <c r="L112" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="113" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B113" t="s">
+        <v>201</v>
+      </c>
+      <c r="C113" t="s">
+        <v>171</v>
+      </c>
+      <c r="G113" t="s">
+        <v>222</v>
+      </c>
+      <c r="H113" t="s">
+        <v>26</v>
+      </c>
+      <c r="I113" t="s">
+        <v>74</v>
+      </c>
+      <c r="J113" t="s">
+        <v>74</v>
+      </c>
+      <c r="K113" t="s">
+        <v>74</v>
+      </c>
+      <c r="L113" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="114" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B114" t="s">
+        <v>201</v>
+      </c>
+      <c r="C114" t="s">
+        <v>171</v>
+      </c>
+      <c r="G114" t="s">
+        <v>254</v>
+      </c>
+      <c r="H114" t="s">
+        <v>26</v>
+      </c>
+      <c r="I114" t="s">
+        <v>74</v>
+      </c>
+      <c r="J114" t="s">
+        <v>74</v>
+      </c>
+      <c r="K114" t="s">
+        <v>74</v>
+      </c>
+      <c r="L114" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="115" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B115" t="s">
+        <v>201</v>
+      </c>
+      <c r="C115" t="s">
+        <v>171</v>
+      </c>
+      <c r="G115" t="s">
+        <v>227</v>
+      </c>
+      <c r="H115" t="s">
+        <v>26</v>
+      </c>
+      <c r="I115" t="s">
+        <v>74</v>
+      </c>
+      <c r="J115" t="s">
+        <v>74</v>
+      </c>
+      <c r="K115" t="s">
+        <v>74</v>
+      </c>
+      <c r="L115" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="116" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B116" t="s">
+        <v>201</v>
+      </c>
+      <c r="C116" t="s">
+        <v>171</v>
+      </c>
+      <c r="G116" t="s">
+        <v>228</v>
+      </c>
+      <c r="H116" t="s">
+        <v>26</v>
+      </c>
+      <c r="I116" t="s">
+        <v>74</v>
+      </c>
+      <c r="J116" t="s">
+        <v>74</v>
+      </c>
+      <c r="K116" t="s">
+        <v>74</v>
+      </c>
+      <c r="L116" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="117" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B117" t="s">
+        <v>201</v>
+      </c>
+      <c r="C117" t="s">
+        <v>171</v>
+      </c>
+      <c r="G117" t="s">
+        <v>255</v>
+      </c>
+      <c r="H117" t="s">
+        <v>26</v>
+      </c>
+      <c r="I117" t="s">
+        <v>74</v>
+      </c>
+      <c r="J117" t="s">
+        <v>74</v>
+      </c>
+      <c r="K117" t="s">
+        <v>74</v>
+      </c>
+      <c r="L117" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="118" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B118" t="s">
+        <v>201</v>
+      </c>
+      <c r="C118" t="s">
+        <v>171</v>
+      </c>
+      <c r="G118" t="s">
+        <v>173</v>
+      </c>
+      <c r="H118" t="s">
+        <v>26</v>
+      </c>
+      <c r="I118" t="s">
+        <v>74</v>
+      </c>
+      <c r="J118" t="s">
+        <v>74</v>
+      </c>
+      <c r="K118" t="s">
+        <v>74</v>
+      </c>
+      <c r="L118" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="119" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B119" t="s">
+        <v>201</v>
+      </c>
+      <c r="C119" t="s">
+        <v>171</v>
+      </c>
+      <c r="G119" t="s">
+        <v>193</v>
+      </c>
+      <c r="H119" t="s">
+        <v>26</v>
+      </c>
+      <c r="I119" t="s">
+        <v>74</v>
+      </c>
+      <c r="J119" t="s">
+        <v>74</v>
+      </c>
+      <c r="K119" t="s">
+        <v>74</v>
+      </c>
+      <c r="L119" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="120" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B120" t="s">
+        <v>201</v>
+      </c>
+      <c r="C120" t="s">
+        <v>171</v>
+      </c>
+      <c r="G120" t="s">
+        <v>188</v>
+      </c>
+      <c r="H120" t="s">
+        <v>26</v>
+      </c>
+      <c r="I120" t="s">
+        <v>74</v>
+      </c>
+      <c r="J120" t="s">
+        <v>74</v>
+      </c>
+      <c r="K120" t="s">
+        <v>74</v>
+      </c>
+      <c r="L120" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="121" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B121" t="s">
+        <v>201</v>
+      </c>
+      <c r="C121" t="s">
+        <v>171</v>
+      </c>
+      <c r="G121" t="s">
+        <v>230</v>
+      </c>
+      <c r="H121" t="s">
+        <v>26</v>
+      </c>
+      <c r="I121" t="s">
+        <v>74</v>
+      </c>
+      <c r="J121" t="s">
+        <v>74</v>
+      </c>
+      <c r="K121" t="s">
+        <v>74</v>
+      </c>
+      <c r="L121" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="122" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B122" t="s">
+        <v>201</v>
+      </c>
+      <c r="C122" t="s">
+        <v>171</v>
+      </c>
+      <c r="G122" t="s">
+        <v>175</v>
+      </c>
+      <c r="H122" t="s">
+        <v>26</v>
+      </c>
+      <c r="I122" t="s">
+        <v>26</v>
+      </c>
+      <c r="J122" t="s">
+        <v>26</v>
+      </c>
+      <c r="K122" t="s">
+        <v>74</v>
+      </c>
+      <c r="L122" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="123" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B123" t="s">
+        <v>201</v>
+      </c>
+      <c r="C123" t="s">
+        <v>171</v>
+      </c>
+      <c r="G123" t="s">
+        <v>232</v>
+      </c>
+      <c r="H123" t="s">
+        <v>26</v>
+      </c>
+      <c r="I123" t="s">
+        <v>74</v>
+      </c>
+      <c r="J123" t="s">
+        <v>74</v>
+      </c>
+      <c r="K123" t="s">
+        <v>74</v>
+      </c>
+      <c r="L123" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="124" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B124" t="s">
+        <v>201</v>
+      </c>
+      <c r="C124" t="s">
+        <v>171</v>
+      </c>
+      <c r="G124" t="s">
+        <v>237</v>
+      </c>
+      <c r="H124" t="s">
+        <v>26</v>
+      </c>
+      <c r="I124" t="s">
+        <v>74</v>
+      </c>
+      <c r="J124" t="s">
+        <v>74</v>
+      </c>
+      <c r="K124" t="s">
+        <v>74</v>
+      </c>
+      <c r="L124" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="125" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B125" t="s">
+        <v>201</v>
+      </c>
+      <c r="C125" t="s">
+        <v>171</v>
+      </c>
+      <c r="G125" t="s">
+        <v>191</v>
+      </c>
+      <c r="H125" t="s">
+        <v>26</v>
+      </c>
+      <c r="I125" t="s">
+        <v>74</v>
+      </c>
+      <c r="J125" t="s">
+        <v>74</v>
+      </c>
+      <c r="K125" t="s">
+        <v>74</v>
+      </c>
+      <c r="L125" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="126" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B126" t="s">
+        <v>201</v>
+      </c>
+      <c r="C126" t="s">
+        <v>171</v>
+      </c>
+      <c r="G126" t="s">
+        <v>189</v>
+      </c>
+      <c r="H126" t="s">
+        <v>26</v>
+      </c>
+      <c r="I126" t="s">
+        <v>74</v>
+      </c>
+      <c r="J126" t="s">
+        <v>74</v>
+      </c>
+      <c r="K126" t="s">
+        <v>74</v>
+      </c>
+      <c r="L126" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="127" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B127" t="s">
+        <v>201</v>
+      </c>
+      <c r="C127" t="s">
+        <v>171</v>
+      </c>
+      <c r="G127" t="s">
+        <v>190</v>
+      </c>
+      <c r="H127" t="s">
+        <v>26</v>
+      </c>
+      <c r="I127" t="s">
+        <v>74</v>
+      </c>
+      <c r="J127" t="s">
+        <v>74</v>
+      </c>
+      <c r="K127" t="s">
+        <v>74</v>
+      </c>
+      <c r="L127" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="128" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B128" t="s">
+        <v>201</v>
+      </c>
+      <c r="C128" t="s">
+        <v>171</v>
+      </c>
+      <c r="G128" t="s">
+        <v>192</v>
+      </c>
+      <c r="H128" t="s">
+        <v>26</v>
+      </c>
+      <c r="I128" t="s">
+        <v>74</v>
+      </c>
+      <c r="J128" t="s">
+        <v>74</v>
+      </c>
+      <c r="K128" t="s">
+        <v>74</v>
+      </c>
+      <c r="L128" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="129" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B129" t="s">
+        <v>201</v>
+      </c>
+      <c r="C129" t="s">
+        <v>171</v>
+      </c>
+      <c r="G129" t="s">
+        <v>256</v>
+      </c>
+      <c r="H129" t="s">
+        <v>26</v>
+      </c>
+      <c r="I129" t="s">
+        <v>74</v>
+      </c>
+      <c r="J129" t="s">
+        <v>74</v>
+      </c>
+      <c r="K129" t="s">
+        <v>74</v>
+      </c>
+      <c r="L129" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="130" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B130" t="s">
+        <v>197</v>
+      </c>
+      <c r="C130" t="s">
+        <v>170</v>
+      </c>
+      <c r="G130" t="s">
+        <v>183</v>
+      </c>
+      <c r="H130" t="s">
+        <v>26</v>
+      </c>
+      <c r="I130" t="s">
+        <v>26</v>
+      </c>
+      <c r="J130" t="s">
+        <v>26</v>
+      </c>
+      <c r="K130" t="s">
+        <v>74</v>
+      </c>
+      <c r="L130" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="131" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B131" t="s">
+        <v>197</v>
+      </c>
+      <c r="C131" t="s">
+        <v>170</v>
+      </c>
+      <c r="G131" t="s">
+        <v>214</v>
+      </c>
+      <c r="H131" t="s">
+        <v>26</v>
+      </c>
+      <c r="I131" t="s">
+        <v>74</v>
+      </c>
+      <c r="J131" t="s">
+        <v>74</v>
+      </c>
+      <c r="K131" t="s">
+        <v>74</v>
+      </c>
+      <c r="L131" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="132" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B132" t="s">
+        <v>197</v>
+      </c>
+      <c r="C132" t="s">
+        <v>170</v>
+      </c>
+      <c r="G132" t="s">
+        <v>215</v>
+      </c>
+      <c r="H132" t="s">
+        <v>26</v>
+      </c>
+      <c r="I132" t="s">
+        <v>74</v>
+      </c>
+      <c r="J132" t="s">
+        <v>74</v>
+      </c>
+      <c r="K132" t="s">
+        <v>74</v>
+      </c>
+      <c r="L132" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="133" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B133" t="s">
+        <v>197</v>
+      </c>
+      <c r="C133" t="s">
+        <v>170</v>
+      </c>
+      <c r="G133" t="s">
+        <v>176</v>
+      </c>
+      <c r="H133" t="s">
+        <v>26</v>
+      </c>
+      <c r="I133" t="s">
+        <v>74</v>
+      </c>
+      <c r="J133" t="s">
+        <v>74</v>
+      </c>
+      <c r="K133" t="s">
+        <v>74</v>
+      </c>
+      <c r="L133" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="134" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B134" t="s">
+        <v>197</v>
+      </c>
+      <c r="C134" t="s">
+        <v>170</v>
+      </c>
+      <c r="G134" t="s">
+        <v>216</v>
+      </c>
+      <c r="H134" t="s">
+        <v>26</v>
+      </c>
+      <c r="I134" t="s">
+        <v>26</v>
+      </c>
+      <c r="J134" t="s">
+        <v>26</v>
+      </c>
+      <c r="K134" t="s">
+        <v>74</v>
+      </c>
+      <c r="L134" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="135" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B135" t="s">
+        <v>197</v>
+      </c>
+      <c r="C135" t="s">
+        <v>170</v>
+      </c>
+      <c r="G135" t="s">
+        <v>217</v>
+      </c>
+      <c r="H135" t="s">
+        <v>26</v>
+      </c>
+      <c r="I135" t="s">
+        <v>74</v>
+      </c>
+      <c r="J135" t="s">
+        <v>74</v>
+      </c>
+      <c r="K135" t="s">
+        <v>74</v>
+      </c>
+      <c r="L135" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="136" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B136" t="s">
+        <v>197</v>
+      </c>
+      <c r="C136" t="s">
+        <v>170</v>
+      </c>
+      <c r="G136" t="s">
+        <v>177</v>
+      </c>
+      <c r="H136" t="s">
+        <v>26</v>
+      </c>
+      <c r="I136" t="s">
+        <v>74</v>
+      </c>
+      <c r="J136" t="s">
+        <v>74</v>
+      </c>
+      <c r="K136" t="s">
+        <v>74</v>
+      </c>
+      <c r="L136" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="137" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B137" t="s">
+        <v>197</v>
+      </c>
+      <c r="C137" t="s">
+        <v>170</v>
+      </c>
+      <c r="G137" t="s">
+        <v>218</v>
+      </c>
+      <c r="H137" t="s">
+        <v>26</v>
+      </c>
+      <c r="I137" t="s">
+        <v>26</v>
+      </c>
+      <c r="J137" t="s">
+        <v>26</v>
+      </c>
+      <c r="K137" t="s">
+        <v>74</v>
+      </c>
+      <c r="L137" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="138" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B138" t="s">
+        <v>197</v>
+      </c>
+      <c r="C138" t="s">
+        <v>170</v>
+      </c>
+      <c r="G138" t="s">
+        <v>219</v>
+      </c>
+      <c r="H138" t="s">
+        <v>26</v>
+      </c>
+      <c r="I138" t="s">
+        <v>74</v>
+      </c>
+      <c r="J138" t="s">
+        <v>74</v>
+      </c>
+      <c r="K138" t="s">
+        <v>74</v>
+      </c>
+      <c r="L138" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="139" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B139" t="s">
+        <v>197</v>
+      </c>
+      <c r="C139" t="s">
+        <v>170</v>
+      </c>
+      <c r="G139" t="s">
+        <v>220</v>
+      </c>
+      <c r="H139" t="s">
+        <v>26</v>
+      </c>
+      <c r="I139" t="s">
+        <v>74</v>
+      </c>
+      <c r="J139" t="s">
+        <v>74</v>
+      </c>
+      <c r="K139" t="s">
+        <v>74</v>
+      </c>
+      <c r="L139" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="140" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B140" t="s">
+        <v>197</v>
+      </c>
+      <c r="C140" t="s">
+        <v>170</v>
+      </c>
+      <c r="G140" t="s">
+        <v>221</v>
+      </c>
+      <c r="H140" t="s">
+        <v>26</v>
+      </c>
+      <c r="I140" t="s">
+        <v>74</v>
+      </c>
+      <c r="J140" t="s">
+        <v>74</v>
+      </c>
+      <c r="K140" t="s">
+        <v>74</v>
+      </c>
+      <c r="L140" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="141" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B141" t="s">
+        <v>197</v>
+      </c>
+      <c r="C141" t="s">
+        <v>170</v>
+      </c>
+      <c r="G141" t="s">
+        <v>222</v>
+      </c>
+      <c r="H141" t="s">
+        <v>26</v>
+      </c>
+      <c r="I141" t="s">
+        <v>74</v>
+      </c>
+      <c r="J141" t="s">
+        <v>74</v>
+      </c>
+      <c r="K141" t="s">
+        <v>74</v>
+      </c>
+      <c r="L141" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="142" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B142" t="s">
+        <v>197</v>
+      </c>
+      <c r="C142" t="s">
+        <v>170</v>
+      </c>
+      <c r="G142" t="s">
+        <v>223</v>
+      </c>
+      <c r="H142" t="s">
+        <v>26</v>
+      </c>
+      <c r="I142" t="s">
+        <v>74</v>
+      </c>
+      <c r="J142" t="s">
+        <v>74</v>
+      </c>
+      <c r="K142" t="s">
+        <v>74</v>
+      </c>
+      <c r="L142" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="143" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B143" t="s">
+        <v>197</v>
+      </c>
+      <c r="C143" t="s">
+        <v>170</v>
+      </c>
+      <c r="G143" t="s">
+        <v>224</v>
+      </c>
+      <c r="H143" t="s">
+        <v>26</v>
+      </c>
+      <c r="I143" t="s">
+        <v>74</v>
+      </c>
+      <c r="J143" t="s">
+        <v>74</v>
+      </c>
+      <c r="K143" t="s">
+        <v>74</v>
+      </c>
+      <c r="L143" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="144" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B144" t="s">
+        <v>197</v>
+      </c>
+      <c r="C144" t="s">
+        <v>170</v>
+      </c>
+      <c r="G144" t="s">
+        <v>225</v>
+      </c>
+      <c r="H144" t="s">
+        <v>26</v>
+      </c>
+      <c r="I144" t="s">
+        <v>74</v>
+      </c>
+      <c r="J144" t="s">
+        <v>74</v>
+      </c>
+      <c r="K144" t="s">
+        <v>74</v>
+      </c>
+      <c r="L144" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="145" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B145" t="s">
+        <v>197</v>
+      </c>
+      <c r="C145" t="s">
+        <v>170</v>
+      </c>
+      <c r="G145" t="s">
+        <v>226</v>
+      </c>
+      <c r="H145" t="s">
+        <v>26</v>
+      </c>
+      <c r="I145" t="s">
+        <v>74</v>
+      </c>
+      <c r="J145" t="s">
+        <v>74</v>
+      </c>
+      <c r="K145" t="s">
+        <v>74</v>
+      </c>
+      <c r="L145" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="146" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B146" t="s">
+        <v>197</v>
+      </c>
+      <c r="C146" t="s">
+        <v>170</v>
+      </c>
+      <c r="G146" t="s">
+        <v>227</v>
+      </c>
+      <c r="H146" t="s">
+        <v>26</v>
+      </c>
+      <c r="I146" t="s">
+        <v>74</v>
+      </c>
+      <c r="J146" t="s">
+        <v>74</v>
+      </c>
+      <c r="K146" t="s">
+        <v>74</v>
+      </c>
+      <c r="L146" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="147" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B147" t="s">
+        <v>197</v>
+      </c>
+      <c r="C147" t="s">
+        <v>170</v>
+      </c>
+      <c r="G147" t="s">
+        <v>228</v>
+      </c>
+      <c r="H147" t="s">
+        <v>26</v>
+      </c>
+      <c r="I147" t="s">
+        <v>74</v>
+      </c>
+      <c r="J147" t="s">
+        <v>74</v>
+      </c>
+      <c r="K147" t="s">
+        <v>74</v>
+      </c>
+      <c r="L147" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="148" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B148" t="s">
+        <v>197</v>
+      </c>
+      <c r="C148" t="s">
+        <v>170</v>
+      </c>
+      <c r="G148" t="s">
+        <v>229</v>
+      </c>
+      <c r="H148" t="s">
+        <v>26</v>
+      </c>
+      <c r="I148" t="s">
+        <v>74</v>
+      </c>
+      <c r="J148" t="s">
+        <v>74</v>
+      </c>
+      <c r="K148" t="s">
+        <v>74</v>
+      </c>
+      <c r="L148" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="149" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B149" t="s">
+        <v>197</v>
+      </c>
+      <c r="C149" t="s">
+        <v>170</v>
+      </c>
+      <c r="G149" t="s">
+        <v>173</v>
+      </c>
+      <c r="H149" t="s">
+        <v>26</v>
+      </c>
+      <c r="I149" t="s">
+        <v>26</v>
+      </c>
+      <c r="J149" t="s">
+        <v>26</v>
+      </c>
+      <c r="K149" t="s">
+        <v>74</v>
+      </c>
+      <c r="L149" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="150" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B150" t="s">
+        <v>197</v>
+      </c>
+      <c r="C150" t="s">
+        <v>170</v>
+      </c>
+      <c r="G150" t="s">
+        <v>230</v>
+      </c>
+      <c r="H150" t="s">
+        <v>26</v>
+      </c>
+      <c r="I150" t="s">
+        <v>74</v>
+      </c>
+      <c r="J150" t="s">
+        <v>74</v>
+      </c>
+      <c r="K150" t="s">
+        <v>74</v>
+      </c>
+      <c r="L150" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="151" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B151" t="s">
+        <v>197</v>
+      </c>
+      <c r="C151" t="s">
+        <v>170</v>
+      </c>
+      <c r="G151" t="s">
+        <v>175</v>
+      </c>
+      <c r="H151" t="s">
+        <v>26</v>
+      </c>
+      <c r="I151" t="s">
+        <v>74</v>
+      </c>
+      <c r="J151" t="s">
+        <v>74</v>
+      </c>
+      <c r="K151" t="s">
+        <v>74</v>
+      </c>
+      <c r="L151" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="152" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B152" t="s">
+        <v>197</v>
+      </c>
+      <c r="C152" t="s">
+        <v>170</v>
+      </c>
+      <c r="G152" t="s">
+        <v>231</v>
+      </c>
+      <c r="H152" t="s">
+        <v>26</v>
+      </c>
+      <c r="I152" t="s">
+        <v>74</v>
+      </c>
+      <c r="J152" t="s">
+        <v>74</v>
+      </c>
+      <c r="K152" t="s">
+        <v>74</v>
+      </c>
+      <c r="L152" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="153" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B153" t="s">
+        <v>197</v>
+      </c>
+      <c r="C153" t="s">
+        <v>170</v>
+      </c>
+      <c r="G153" t="s">
+        <v>172</v>
+      </c>
+      <c r="H153" t="s">
+        <v>26</v>
+      </c>
+      <c r="I153" t="s">
+        <v>26</v>
+      </c>
+      <c r="J153" t="s">
+        <v>26</v>
+      </c>
+      <c r="K153" t="s">
+        <v>74</v>
+      </c>
+      <c r="L153" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="154" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B154" t="s">
+        <v>197</v>
+      </c>
+      <c r="C154" t="s">
+        <v>170</v>
+      </c>
+      <c r="G154" t="s">
+        <v>232</v>
+      </c>
+      <c r="H154" t="s">
+        <v>26</v>
+      </c>
+      <c r="I154" t="s">
+        <v>74</v>
+      </c>
+      <c r="J154" t="s">
+        <v>74</v>
+      </c>
+      <c r="K154" t="s">
+        <v>74</v>
+      </c>
+      <c r="L154" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="155" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B155" t="s">
+        <v>197</v>
+      </c>
+      <c r="C155" t="s">
+        <v>170</v>
+      </c>
+      <c r="G155" t="s">
+        <v>233</v>
+      </c>
+      <c r="H155" t="s">
+        <v>26</v>
+      </c>
+      <c r="I155" t="s">
+        <v>74</v>
+      </c>
+      <c r="J155" t="s">
+        <v>74</v>
+      </c>
+      <c r="K155" t="s">
+        <v>74</v>
+      </c>
+      <c r="L155" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="156" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B156" t="s">
+        <v>197</v>
+      </c>
+      <c r="C156" t="s">
+        <v>170</v>
+      </c>
+      <c r="G156" t="s">
+        <v>234</v>
+      </c>
+      <c r="H156" t="s">
+        <v>26</v>
+      </c>
+      <c r="I156" t="s">
+        <v>74</v>
+      </c>
+      <c r="J156" t="s">
+        <v>74</v>
+      </c>
+      <c r="K156" t="s">
+        <v>74</v>
+      </c>
+      <c r="L156" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="157" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B157" t="s">
+        <v>197</v>
+      </c>
+      <c r="C157" t="s">
+        <v>170</v>
+      </c>
+      <c r="G157" t="s">
+        <v>235</v>
+      </c>
+      <c r="H157" t="s">
+        <v>26</v>
+      </c>
+      <c r="I157" t="s">
+        <v>74</v>
+      </c>
+      <c r="J157" t="s">
+        <v>74</v>
+      </c>
+      <c r="K157" t="s">
+        <v>74</v>
+      </c>
+      <c r="L157" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="158" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B158" t="s">
+        <v>197</v>
+      </c>
+      <c r="C158" t="s">
+        <v>170</v>
+      </c>
+      <c r="G158" t="s">
+        <v>236</v>
+      </c>
+      <c r="H158" t="s">
+        <v>26</v>
+      </c>
+      <c r="I158" t="s">
+        <v>74</v>
+      </c>
+      <c r="J158" t="s">
+        <v>74</v>
+      </c>
+      <c r="K158" t="s">
+        <v>74</v>
+      </c>
+      <c r="L158" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="159" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B159" t="s">
+        <v>197</v>
+      </c>
+      <c r="C159" t="s">
+        <v>170</v>
+      </c>
+      <c r="G159" t="s">
+        <v>237</v>
+      </c>
+      <c r="H159" t="s">
+        <v>26</v>
+      </c>
+      <c r="I159" t="s">
+        <v>74</v>
+      </c>
+      <c r="J159" t="s">
+        <v>74</v>
+      </c>
+      <c r="K159" t="s">
+        <v>74</v>
+      </c>
+      <c r="L159" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="160" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B160" t="s">
+        <v>197</v>
+      </c>
+      <c r="C160" t="s">
+        <v>171</v>
+      </c>
+      <c r="G160" t="s">
+        <v>183</v>
+      </c>
+      <c r="H160" t="s">
+        <v>26</v>
+      </c>
+      <c r="I160" t="s">
+        <v>26</v>
+      </c>
+      <c r="J160" t="s">
+        <v>26</v>
+      </c>
+      <c r="K160" t="s">
+        <v>74</v>
+      </c>
+      <c r="L160" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="161" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B161" t="s">
+        <v>197</v>
+      </c>
+      <c r="C161" t="s">
+        <v>171</v>
+      </c>
+      <c r="G161" t="s">
+        <v>238</v>
+      </c>
+      <c r="H161" t="s">
+        <v>26</v>
+      </c>
+      <c r="I161" t="s">
+        <v>26</v>
+      </c>
+      <c r="J161" t="s">
+        <v>26</v>
+      </c>
+      <c r="K161" t="s">
+        <v>74</v>
+      </c>
+      <c r="L161" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="162" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B162" t="s">
+        <v>197</v>
+      </c>
+      <c r="C162" t="s">
+        <v>171</v>
+      </c>
+      <c r="G162" t="s">
+        <v>239</v>
+      </c>
+      <c r="H162" t="s">
+        <v>26</v>
+      </c>
+      <c r="I162" t="s">
+        <v>74</v>
+      </c>
+      <c r="J162" t="s">
+        <v>74</v>
+      </c>
+      <c r="K162" t="s">
+        <v>74</v>
+      </c>
+      <c r="L162" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="163" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B163" t="s">
+        <v>197</v>
+      </c>
+      <c r="C163" t="s">
+        <v>171</v>
+      </c>
+      <c r="G163" t="s">
+        <v>240</v>
+      </c>
+      <c r="H163" t="s">
+        <v>26</v>
+      </c>
+      <c r="I163" t="s">
+        <v>26</v>
+      </c>
+      <c r="J163" t="s">
+        <v>26</v>
+      </c>
+      <c r="K163" t="s">
+        <v>74</v>
+      </c>
+      <c r="L163" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="164" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B164" t="s">
+        <v>197</v>
+      </c>
+      <c r="C164" t="s">
+        <v>171</v>
+      </c>
+      <c r="G164" t="s">
+        <v>241</v>
+      </c>
+      <c r="H164" t="s">
+        <v>26</v>
+      </c>
+      <c r="I164" t="s">
+        <v>26</v>
+      </c>
+      <c r="J164" t="s">
+        <v>26</v>
+      </c>
+      <c r="K164" t="s">
+        <v>74</v>
+      </c>
+      <c r="L164" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="165" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B165" t="s">
+        <v>197</v>
+      </c>
+      <c r="C165" t="s">
+        <v>171</v>
+      </c>
+      <c r="G165" t="s">
+        <v>216</v>
+      </c>
+      <c r="H165" t="s">
+        <v>26</v>
+      </c>
+      <c r="I165" t="s">
+        <v>26</v>
+      </c>
+      <c r="J165" t="s">
+        <v>26</v>
+      </c>
+      <c r="K165" t="s">
+        <v>74</v>
+      </c>
+      <c r="L165" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="166" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B166" t="s">
+        <v>197</v>
+      </c>
+      <c r="C166" t="s">
+        <v>171</v>
+      </c>
+      <c r="G166" t="s">
+        <v>218</v>
+      </c>
+      <c r="H166" t="s">
+        <v>26</v>
+      </c>
+      <c r="I166" t="s">
+        <v>26</v>
+      </c>
+      <c r="J166" t="s">
+        <v>26</v>
+      </c>
+      <c r="K166" t="s">
+        <v>74</v>
+      </c>
+      <c r="L166" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="167" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B167" t="s">
+        <v>197</v>
+      </c>
+      <c r="C167" t="s">
+        <v>171</v>
+      </c>
+      <c r="G167" t="s">
+        <v>242</v>
+      </c>
+      <c r="H167" t="s">
+        <v>26</v>
+      </c>
+      <c r="I167" t="s">
+        <v>74</v>
+      </c>
+      <c r="J167" t="s">
+        <v>74</v>
+      </c>
+      <c r="K167" t="s">
+        <v>74</v>
+      </c>
+      <c r="L167" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="168" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B168" t="s">
+        <v>197</v>
+      </c>
+      <c r="C168" t="s">
+        <v>171</v>
+      </c>
+      <c r="G168" t="s">
+        <v>243</v>
+      </c>
+      <c r="H168" t="s">
+        <v>26</v>
+      </c>
+      <c r="I168" t="s">
+        <v>26</v>
+      </c>
+      <c r="J168" t="s">
+        <v>26</v>
+      </c>
+      <c r="K168" t="s">
+        <v>74</v>
+      </c>
+      <c r="L168" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="169" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B169" t="s">
+        <v>197</v>
+      </c>
+      <c r="C169" t="s">
+        <v>171</v>
+      </c>
+      <c r="G169" t="s">
+        <v>219</v>
+      </c>
+      <c r="H169" t="s">
+        <v>26</v>
+      </c>
+      <c r="I169" t="s">
+        <v>74</v>
+      </c>
+      <c r="J169" t="s">
+        <v>74</v>
+      </c>
+      <c r="K169" t="s">
+        <v>74</v>
+      </c>
+      <c r="L169" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="170" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B170" t="s">
+        <v>197</v>
+      </c>
+      <c r="C170" t="s">
+        <v>171</v>
+      </c>
+      <c r="G170" t="s">
+        <v>244</v>
+      </c>
+      <c r="H170" t="s">
+        <v>26</v>
+      </c>
+      <c r="I170" t="s">
+        <v>74</v>
+      </c>
+      <c r="J170" t="s">
+        <v>74</v>
+      </c>
+      <c r="K170" t="s">
+        <v>74</v>
+      </c>
+      <c r="L170" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="171" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B171" t="s">
+        <v>197</v>
+      </c>
+      <c r="C171" t="s">
+        <v>171</v>
+      </c>
+      <c r="G171" t="s">
+        <v>245</v>
+      </c>
+      <c r="H171" t="s">
+        <v>26</v>
+      </c>
+      <c r="I171" t="s">
+        <v>74</v>
+      </c>
+      <c r="J171" t="s">
+        <v>74</v>
+      </c>
+      <c r="K171" t="s">
+        <v>74</v>
+      </c>
+      <c r="L171" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="172" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B172" t="s">
+        <v>197</v>
+      </c>
+      <c r="C172" t="s">
+        <v>171</v>
+      </c>
+      <c r="G172" t="s">
+        <v>224</v>
+      </c>
+      <c r="H172" t="s">
+        <v>26</v>
+      </c>
+      <c r="I172" t="s">
+        <v>74</v>
+      </c>
+      <c r="J172" t="s">
+        <v>74</v>
+      </c>
+      <c r="K172" t="s">
+        <v>74</v>
+      </c>
+      <c r="L172" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="173" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B173" t="s">
+        <v>197</v>
+      </c>
+      <c r="C173" t="s">
+        <v>171</v>
+      </c>
+      <c r="G173" t="s">
+        <v>225</v>
+      </c>
+      <c r="H173" t="s">
+        <v>26</v>
+      </c>
+      <c r="I173" t="s">
+        <v>74</v>
+      </c>
+      <c r="J173" t="s">
+        <v>74</v>
+      </c>
+      <c r="K173" t="s">
+        <v>74</v>
+      </c>
+      <c r="L173" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="174" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B174" t="s">
+        <v>197</v>
+      </c>
+      <c r="C174" t="s">
+        <v>171</v>
+      </c>
+      <c r="G174" t="s">
+        <v>226</v>
+      </c>
+      <c r="H174" t="s">
+        <v>26</v>
+      </c>
+      <c r="I174" t="s">
+        <v>74</v>
+      </c>
+      <c r="J174" t="s">
+        <v>74</v>
+      </c>
+      <c r="K174" t="s">
+        <v>74</v>
+      </c>
+      <c r="L174" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="175" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B175" t="s">
+        <v>197</v>
+      </c>
+      <c r="C175" t="s">
+        <v>171</v>
+      </c>
+      <c r="G175" t="s">
+        <v>229</v>
+      </c>
+      <c r="H175" t="s">
+        <v>26</v>
+      </c>
+      <c r="I175" t="s">
+        <v>74</v>
+      </c>
+      <c r="J175" t="s">
+        <v>74</v>
+      </c>
+      <c r="K175" t="s">
+        <v>74</v>
+      </c>
+      <c r="L175" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="176" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B176" t="s">
+        <v>197</v>
+      </c>
+      <c r="C176" t="s">
+        <v>171</v>
+      </c>
+      <c r="G176" t="s">
+        <v>231</v>
+      </c>
+      <c r="H176" t="s">
+        <v>26</v>
+      </c>
+      <c r="I176" t="s">
+        <v>74</v>
+      </c>
+      <c r="J176" t="s">
+        <v>74</v>
+      </c>
+      <c r="K176" t="s">
+        <v>74</v>
+      </c>
+      <c r="L176" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="177" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B177" t="s">
+        <v>197</v>
+      </c>
+      <c r="C177" t="s">
+        <v>171</v>
+      </c>
+      <c r="G177" t="s">
+        <v>246</v>
+      </c>
+      <c r="H177" t="s">
+        <v>26</v>
+      </c>
+      <c r="I177" t="s">
+        <v>74</v>
+      </c>
+      <c r="J177" t="s">
+        <v>74</v>
+      </c>
+      <c r="K177" t="s">
+        <v>74</v>
+      </c>
+      <c r="L177" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="178" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B178" t="s">
+        <v>197</v>
+      </c>
+      <c r="C178" t="s">
+        <v>171</v>
+      </c>
+      <c r="G178" t="s">
+        <v>247</v>
+      </c>
+      <c r="H178" t="s">
+        <v>26</v>
+      </c>
+      <c r="I178" t="s">
+        <v>26</v>
+      </c>
+      <c r="J178" t="s">
+        <v>26</v>
+      </c>
+      <c r="K178" t="s">
+        <v>74</v>
+      </c>
+      <c r="L178" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="179" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B179" t="s">
+        <v>197</v>
+      </c>
+      <c r="C179" t="s">
+        <v>171</v>
+      </c>
+      <c r="G179" t="s">
+        <v>172</v>
+      </c>
+      <c r="H179" t="s">
+        <v>26</v>
+      </c>
+      <c r="I179" t="s">
+        <v>26</v>
+      </c>
+      <c r="J179" t="s">
+        <v>26</v>
+      </c>
+      <c r="K179" t="s">
+        <v>74</v>
+      </c>
+      <c r="L179" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="180" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B180" t="s">
+        <v>197</v>
+      </c>
+      <c r="C180" t="s">
+        <v>171</v>
+      </c>
+      <c r="G180" t="s">
+        <v>233</v>
+      </c>
+      <c r="H180" t="s">
+        <v>26</v>
+      </c>
+      <c r="I180" t="s">
+        <v>74</v>
+      </c>
+      <c r="J180" t="s">
+        <v>74</v>
+      </c>
+      <c r="K180" t="s">
+        <v>74</v>
+      </c>
+      <c r="L180" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="181" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B181" t="s">
+        <v>197</v>
+      </c>
+      <c r="C181" t="s">
+        <v>171</v>
+      </c>
+      <c r="G181" t="s">
+        <v>248</v>
+      </c>
+      <c r="H181" t="s">
+        <v>26</v>
+      </c>
+      <c r="I181" t="s">
+        <v>26</v>
+      </c>
+      <c r="J181" t="s">
+        <v>26</v>
+      </c>
+      <c r="K181" t="s">
+        <v>74</v>
+      </c>
+      <c r="L181" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="182" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B182" t="s">
+        <v>197</v>
+      </c>
+      <c r="C182" t="s">
+        <v>171</v>
+      </c>
+      <c r="G182" t="s">
+        <v>235</v>
+      </c>
+      <c r="H182" t="s">
+        <v>26</v>
+      </c>
+      <c r="I182" t="s">
+        <v>74</v>
+      </c>
+      <c r="J182" t="s">
+        <v>74</v>
+      </c>
+      <c r="K182" t="s">
+        <v>74</v>
+      </c>
+      <c r="L182" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="183" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B183" t="s">
+        <v>197</v>
+      </c>
+      <c r="C183" t="s">
+        <v>171</v>
+      </c>
+      <c r="G183" t="s">
+        <v>249</v>
+      </c>
+      <c r="H183" t="s">
+        <v>26</v>
+      </c>
+      <c r="I183" t="s">
+        <v>26</v>
+      </c>
+      <c r="J183" t="s">
+        <v>26</v>
+      </c>
+      <c r="K183" t="s">
+        <v>74</v>
+      </c>
+      <c r="L183" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="184" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B184" t="s">
+        <v>197</v>
+      </c>
+      <c r="C184" t="s">
+        <v>171</v>
+      </c>
+      <c r="G184" t="s">
+        <v>236</v>
+      </c>
+      <c r="H184" t="s">
+        <v>26</v>
+      </c>
+      <c r="I184" t="s">
+        <v>74</v>
+      </c>
+      <c r="J184" t="s">
+        <v>74</v>
+      </c>
+      <c r="K184" t="s">
+        <v>74</v>
+      </c>
+      <c r="L184" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="185" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B185" t="s">
+        <v>197</v>
+      </c>
+      <c r="C185" t="s">
+        <v>171</v>
+      </c>
+      <c r="G185" t="s">
+        <v>250</v>
+      </c>
+      <c r="H185" t="s">
+        <v>26</v>
+      </c>
+      <c r="I185" t="s">
+        <v>74</v>
+      </c>
+      <c r="J185" t="s">
+        <v>74</v>
+      </c>
+      <c r="K185" t="s">
+        <v>74</v>
+      </c>
+      <c r="L185" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="186" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B186" t="s">
+        <v>197</v>
+      </c>
+      <c r="C186" t="s">
+        <v>171</v>
+      </c>
+      <c r="G186" t="s">
+        <v>251</v>
+      </c>
+      <c r="H186" t="s">
+        <v>26</v>
+      </c>
+      <c r="I186" t="s">
+        <v>74</v>
+      </c>
+      <c r="J186" t="s">
+        <v>74</v>
+      </c>
+      <c r="K186" t="s">
+        <v>74</v>
+      </c>
+      <c r="L186" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="187" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B187" t="s">
+        <v>197</v>
+      </c>
+      <c r="C187" t="s">
+        <v>171</v>
+      </c>
+      <c r="G187" t="s">
+        <v>252</v>
+      </c>
+      <c r="H187" t="s">
+        <v>26</v>
+      </c>
+      <c r="I187" t="s">
+        <v>26</v>
+      </c>
+      <c r="J187" t="s">
+        <v>26</v>
+      </c>
+      <c r="K187" t="s">
+        <v>74</v>
+      </c>
+      <c r="L187" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="188" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B188" t="s">
+        <v>197</v>
+      </c>
+      <c r="C188" t="s">
+        <v>171</v>
+      </c>
+      <c r="G188" t="s">
+        <v>214</v>
+      </c>
+      <c r="H188" t="s">
+        <v>26</v>
+      </c>
+      <c r="I188" t="s">
+        <v>74</v>
+      </c>
+      <c r="J188" t="s">
+        <v>74</v>
+      </c>
+      <c r="K188" t="s">
+        <v>74</v>
+      </c>
+      <c r="L188" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="189" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B189" t="s">
+        <v>197</v>
+      </c>
+      <c r="C189" t="s">
+        <v>171</v>
+      </c>
+      <c r="G189" t="s">
+        <v>215</v>
+      </c>
+      <c r="H189" t="s">
+        <v>26</v>
+      </c>
+      <c r="I189" t="s">
+        <v>74</v>
+      </c>
+      <c r="J189" t="s">
+        <v>74</v>
+      </c>
+      <c r="K189" t="s">
+        <v>74</v>
+      </c>
+      <c r="L189" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="190" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B190" t="s">
+        <v>197</v>
+      </c>
+      <c r="C190" t="s">
+        <v>171</v>
+      </c>
+      <c r="G190" t="s">
+        <v>253</v>
+      </c>
+      <c r="H190" t="s">
+        <v>26</v>
+      </c>
+      <c r="I190" t="s">
+        <v>74</v>
+      </c>
+      <c r="J190" t="s">
+        <v>74</v>
+      </c>
+      <c r="K190" t="s">
+        <v>74</v>
+      </c>
+      <c r="L190" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="191" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B191" t="s">
+        <v>197</v>
+      </c>
+      <c r="C191" t="s">
+        <v>171</v>
+      </c>
+      <c r="G191" t="s">
+        <v>176</v>
+      </c>
+      <c r="H191" t="s">
+        <v>26</v>
+      </c>
+      <c r="I191" t="s">
+        <v>74</v>
+      </c>
+      <c r="J191" t="s">
+        <v>74</v>
+      </c>
+      <c r="K191" t="s">
+        <v>74</v>
+      </c>
+      <c r="L191" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="192" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B192" t="s">
+        <v>197</v>
+      </c>
+      <c r="C192" t="s">
+        <v>171</v>
+      </c>
+      <c r="G192" t="s">
+        <v>174</v>
+      </c>
+      <c r="H192" t="s">
+        <v>26</v>
+      </c>
+      <c r="I192" t="s">
+        <v>74</v>
+      </c>
+      <c r="J192" t="s">
+        <v>74</v>
+      </c>
+      <c r="K192" t="s">
+        <v>74</v>
+      </c>
+      <c r="L192" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="193" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B193" t="s">
+        <v>197</v>
+      </c>
+      <c r="C193" t="s">
+        <v>171</v>
+      </c>
+      <c r="G193" t="s">
+        <v>217</v>
+      </c>
+      <c r="H193" t="s">
+        <v>26</v>
+      </c>
+      <c r="I193" t="s">
+        <v>74</v>
+      </c>
+      <c r="J193" t="s">
+        <v>74</v>
+      </c>
+      <c r="K193" t="s">
+        <v>74</v>
+      </c>
+      <c r="L193" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="194" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B194" t="s">
+        <v>197</v>
+      </c>
+      <c r="C194" t="s">
+        <v>171</v>
+      </c>
+      <c r="G194" t="s">
+        <v>177</v>
+      </c>
+      <c r="H194" t="s">
+        <v>26</v>
+      </c>
+      <c r="I194" t="s">
+        <v>74</v>
+      </c>
+      <c r="J194" t="s">
+        <v>74</v>
+      </c>
+      <c r="K194" t="s">
+        <v>74</v>
+      </c>
+      <c r="L194" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="195" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B195" t="s">
+        <v>197</v>
+      </c>
+      <c r="C195" t="s">
+        <v>171</v>
+      </c>
+      <c r="G195" t="s">
+        <v>220</v>
+      </c>
+      <c r="H195" t="s">
+        <v>26</v>
+      </c>
+      <c r="I195" t="s">
+        <v>74</v>
+      </c>
+      <c r="J195" t="s">
+        <v>74</v>
+      </c>
+      <c r="K195" t="s">
+        <v>74</v>
+      </c>
+      <c r="L195" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="196" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B196" t="s">
+        <v>197</v>
+      </c>
+      <c r="C196" t="s">
+        <v>171</v>
+      </c>
+      <c r="G196" t="s">
+        <v>221</v>
+      </c>
+      <c r="H196" t="s">
+        <v>26</v>
+      </c>
+      <c r="I196" t="s">
+        <v>74</v>
+      </c>
+      <c r="J196" t="s">
+        <v>74</v>
+      </c>
+      <c r="K196" t="s">
+        <v>74</v>
+      </c>
+      <c r="L196" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="197" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B197" t="s">
+        <v>197</v>
+      </c>
+      <c r="C197" t="s">
+        <v>171</v>
+      </c>
+      <c r="G197" t="s">
+        <v>222</v>
+      </c>
+      <c r="H197" t="s">
+        <v>26</v>
+      </c>
+      <c r="I197" t="s">
+        <v>74</v>
+      </c>
+      <c r="J197" t="s">
+        <v>74</v>
+      </c>
+      <c r="K197" t="s">
+        <v>74</v>
+      </c>
+      <c r="L197" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="198" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B198" t="s">
+        <v>197</v>
+      </c>
+      <c r="C198" t="s">
+        <v>171</v>
+      </c>
+      <c r="G198" t="s">
+        <v>254</v>
+      </c>
+      <c r="H198" t="s">
+        <v>26</v>
+      </c>
+      <c r="I198" t="s">
+        <v>74</v>
+      </c>
+      <c r="J198" t="s">
+        <v>74</v>
+      </c>
+      <c r="K198" t="s">
+        <v>74</v>
+      </c>
+      <c r="L198" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="199" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B199" t="s">
+        <v>197</v>
+      </c>
+      <c r="C199" t="s">
+        <v>171</v>
+      </c>
+      <c r="G199" t="s">
+        <v>227</v>
+      </c>
+      <c r="H199" t="s">
+        <v>26</v>
+      </c>
+      <c r="I199" t="s">
+        <v>74</v>
+      </c>
+      <c r="J199" t="s">
+        <v>74</v>
+      </c>
+      <c r="K199" t="s">
+        <v>74</v>
+      </c>
+      <c r="L199" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="200" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B200" t="s">
+        <v>197</v>
+      </c>
+      <c r="C200" t="s">
+        <v>171</v>
+      </c>
+      <c r="G200" t="s">
+        <v>228</v>
+      </c>
+      <c r="H200" t="s">
+        <v>26</v>
+      </c>
+      <c r="I200" t="s">
+        <v>74</v>
+      </c>
+      <c r="J200" t="s">
+        <v>74</v>
+      </c>
+      <c r="K200" t="s">
+        <v>74</v>
+      </c>
+      <c r="L200" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="201" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B201" t="s">
+        <v>197</v>
+      </c>
+      <c r="C201" t="s">
+        <v>171</v>
+      </c>
+      <c r="G201" t="s">
+        <v>255</v>
+      </c>
+      <c r="H201" t="s">
+        <v>26</v>
+      </c>
+      <c r="I201" t="s">
+        <v>26</v>
+      </c>
+      <c r="J201" t="s">
+        <v>26</v>
+      </c>
+      <c r="K201" t="s">
+        <v>74</v>
+      </c>
+      <c r="L201" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="202" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B202" t="s">
+        <v>197</v>
+      </c>
+      <c r="C202" t="s">
+        <v>171</v>
+      </c>
+      <c r="G202" t="s">
+        <v>173</v>
+      </c>
+      <c r="H202" t="s">
+        <v>26</v>
+      </c>
+      <c r="I202" t="s">
+        <v>26</v>
+      </c>
+      <c r="J202" t="s">
+        <v>26</v>
+      </c>
+      <c r="K202" t="s">
+        <v>74</v>
+      </c>
+      <c r="L202" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="203" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B203" t="s">
+        <v>197</v>
+      </c>
+      <c r="C203" t="s">
+        <v>171</v>
+      </c>
+      <c r="G203" t="s">
+        <v>193</v>
+      </c>
+      <c r="H203" t="s">
+        <v>26</v>
+      </c>
+      <c r="I203" t="s">
+        <v>26</v>
+      </c>
+      <c r="J203" t="s">
+        <v>26</v>
+      </c>
+      <c r="K203" t="s">
+        <v>74</v>
+      </c>
+      <c r="L203" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="204" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B204" t="s">
+        <v>197</v>
+      </c>
+      <c r="C204" t="s">
+        <v>171</v>
+      </c>
+      <c r="G204" t="s">
+        <v>188</v>
+      </c>
+      <c r="H204" t="s">
+        <v>26</v>
+      </c>
+      <c r="I204" t="s">
+        <v>26</v>
+      </c>
+      <c r="J204" t="s">
+        <v>26</v>
+      </c>
+      <c r="K204" t="s">
+        <v>74</v>
+      </c>
+      <c r="L204" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="205" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B205" t="s">
+        <v>197</v>
+      </c>
+      <c r="C205" t="s">
+        <v>171</v>
+      </c>
+      <c r="G205" t="s">
+        <v>230</v>
+      </c>
+      <c r="H205" t="s">
+        <v>26</v>
+      </c>
+      <c r="I205" t="s">
+        <v>74</v>
+      </c>
+      <c r="J205" t="s">
+        <v>74</v>
+      </c>
+      <c r="K205" t="s">
+        <v>74</v>
+      </c>
+      <c r="L205" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="206" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B206" t="s">
+        <v>197</v>
+      </c>
+      <c r="C206" t="s">
+        <v>171</v>
+      </c>
+      <c r="G206" t="s">
+        <v>175</v>
+      </c>
+      <c r="H206" t="s">
+        <v>26</v>
+      </c>
+      <c r="I206" t="s">
+        <v>74</v>
+      </c>
+      <c r="J206" t="s">
+        <v>74</v>
+      </c>
+      <c r="K206" t="s">
+        <v>74</v>
+      </c>
+      <c r="L206" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="207" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B207" t="s">
+        <v>197</v>
+      </c>
+      <c r="C207" t="s">
+        <v>171</v>
+      </c>
+      <c r="G207" t="s">
+        <v>232</v>
+      </c>
+      <c r="H207" t="s">
+        <v>26</v>
+      </c>
+      <c r="I207" t="s">
+        <v>74</v>
+      </c>
+      <c r="J207" t="s">
+        <v>74</v>
+      </c>
+      <c r="K207" t="s">
+        <v>74</v>
+      </c>
+      <c r="L207" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="208" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B208" t="s">
+        <v>197</v>
+      </c>
+      <c r="C208" t="s">
+        <v>171</v>
+      </c>
+      <c r="G208" t="s">
+        <v>237</v>
+      </c>
+      <c r="H208" t="s">
+        <v>26</v>
+      </c>
+      <c r="I208" t="s">
+        <v>74</v>
+      </c>
+      <c r="J208" t="s">
+        <v>74</v>
+      </c>
+      <c r="K208" t="s">
+        <v>74</v>
+      </c>
+      <c r="L208" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="209" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B209" t="s">
+        <v>197</v>
+      </c>
+      <c r="C209" t="s">
+        <v>171</v>
+      </c>
+      <c r="G209" t="s">
+        <v>191</v>
+      </c>
+      <c r="H209" t="s">
+        <v>26</v>
+      </c>
+      <c r="I209" t="s">
+        <v>26</v>
+      </c>
+      <c r="J209" t="s">
+        <v>26</v>
+      </c>
+      <c r="K209" t="s">
+        <v>74</v>
+      </c>
+      <c r="L209" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="210" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B210" t="s">
+        <v>197</v>
+      </c>
+      <c r="C210" t="s">
+        <v>171</v>
+      </c>
+      <c r="G210" t="s">
+        <v>189</v>
+      </c>
+      <c r="H210" t="s">
+        <v>26</v>
+      </c>
+      <c r="I210" t="s">
+        <v>26</v>
+      </c>
+      <c r="J210" t="s">
+        <v>26</v>
+      </c>
+      <c r="K210" t="s">
+        <v>74</v>
+      </c>
+      <c r="L210" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="211" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B211" t="s">
+        <v>197</v>
+      </c>
+      <c r="C211" t="s">
+        <v>171</v>
+      </c>
+      <c r="G211" t="s">
+        <v>190</v>
+      </c>
+      <c r="H211" t="s">
+        <v>26</v>
+      </c>
+      <c r="I211" t="s">
+        <v>26</v>
+      </c>
+      <c r="J211" t="s">
+        <v>26</v>
+      </c>
+      <c r="K211" t="s">
+        <v>74</v>
+      </c>
+      <c r="L211" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="212" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B212" t="s">
+        <v>197</v>
+      </c>
+      <c r="C212" t="s">
+        <v>171</v>
+      </c>
+      <c r="G212" t="s">
+        <v>192</v>
+      </c>
+      <c r="H212" t="s">
+        <v>26</v>
+      </c>
+      <c r="I212" t="s">
+        <v>26</v>
+      </c>
+      <c r="J212" t="s">
+        <v>26</v>
+      </c>
+      <c r="K212" t="s">
+        <v>74</v>
+      </c>
+      <c r="L212" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="213" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B213" t="s">
+        <v>197</v>
+      </c>
+      <c r="C213" t="s">
+        <v>171</v>
+      </c>
+      <c r="G213" t="s">
+        <v>256</v>
+      </c>
+      <c r="H213" t="s">
+        <v>26</v>
+      </c>
+      <c r="I213" t="s">
+        <v>26</v>
+      </c>
+      <c r="J213" t="s">
+        <v>26</v>
+      </c>
+      <c r="K213" t="s">
+        <v>74</v>
+      </c>
+      <c r="L213" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="214" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B214" t="s">
+        <v>199</v>
+      </c>
+      <c r="C214" t="s">
+        <v>170</v>
+      </c>
+      <c r="G214" t="s">
+        <v>183</v>
+      </c>
+      <c r="H214" t="s">
+        <v>74</v>
+      </c>
+      <c r="I214" t="s">
+        <v>74</v>
+      </c>
+      <c r="J214" t="s">
+        <v>74</v>
+      </c>
+      <c r="K214" t="s">
+        <v>74</v>
+      </c>
+      <c r="L214" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="215" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B215" t="s">
+        <v>199</v>
+      </c>
+      <c r="C215" t="s">
+        <v>170</v>
+      </c>
+      <c r="G215" t="s">
+        <v>214</v>
+      </c>
+      <c r="H215" t="s">
+        <v>74</v>
+      </c>
+      <c r="I215" t="s">
+        <v>74</v>
+      </c>
+      <c r="J215" t="s">
+        <v>74</v>
+      </c>
+      <c r="K215" t="s">
+        <v>74</v>
+      </c>
+      <c r="L215" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="216" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B216" t="s">
+        <v>199</v>
+      </c>
+      <c r="C216" t="s">
+        <v>170</v>
+      </c>
+      <c r="G216" t="s">
+        <v>215</v>
+      </c>
+      <c r="H216" t="s">
+        <v>74</v>
+      </c>
+      <c r="I216" t="s">
+        <v>74</v>
+      </c>
+      <c r="J216" t="s">
+        <v>74</v>
+      </c>
+      <c r="K216" t="s">
+        <v>74</v>
+      </c>
+      <c r="L216" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="217" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B217" t="s">
+        <v>199</v>
+      </c>
+      <c r="C217" t="s">
+        <v>170</v>
+      </c>
+      <c r="G217" t="s">
+        <v>176</v>
+      </c>
+      <c r="H217" t="s">
+        <v>74</v>
+      </c>
+      <c r="I217" t="s">
+        <v>74</v>
+      </c>
+      <c r="J217" t="s">
+        <v>74</v>
+      </c>
+      <c r="K217" t="s">
+        <v>74</v>
+      </c>
+      <c r="L217" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="218" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B218" t="s">
+        <v>199</v>
+      </c>
+      <c r="C218" t="s">
+        <v>170</v>
+      </c>
+      <c r="G218" t="s">
+        <v>216</v>
+      </c>
+      <c r="H218" t="s">
+        <v>74</v>
+      </c>
+      <c r="I218" t="s">
+        <v>74</v>
+      </c>
+      <c r="J218" t="s">
+        <v>74</v>
+      </c>
+      <c r="K218" t="s">
+        <v>74</v>
+      </c>
+      <c r="L218" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="219" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B219" t="s">
+        <v>199</v>
+      </c>
+      <c r="C219" t="s">
+        <v>170</v>
+      </c>
+      <c r="G219" t="s">
+        <v>217</v>
+      </c>
+      <c r="H219" t="s">
+        <v>74</v>
+      </c>
+      <c r="I219" t="s">
+        <v>74</v>
+      </c>
+      <c r="J219" t="s">
+        <v>74</v>
+      </c>
+      <c r="K219" t="s">
+        <v>74</v>
+      </c>
+      <c r="L219" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="220" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B220" t="s">
+        <v>199</v>
+      </c>
+      <c r="C220" t="s">
+        <v>170</v>
+      </c>
+      <c r="G220" t="s">
+        <v>177</v>
+      </c>
+      <c r="H220" t="s">
+        <v>74</v>
+      </c>
+      <c r="I220" t="s">
+        <v>74</v>
+      </c>
+      <c r="J220" t="s">
+        <v>74</v>
+      </c>
+      <c r="K220" t="s">
+        <v>74</v>
+      </c>
+      <c r="L220" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="221" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B221" t="s">
+        <v>199</v>
+      </c>
+      <c r="C221" t="s">
+        <v>170</v>
+      </c>
+      <c r="G221" t="s">
+        <v>218</v>
+      </c>
+      <c r="H221" t="s">
+        <v>74</v>
+      </c>
+      <c r="I221" t="s">
+        <v>74</v>
+      </c>
+      <c r="J221" t="s">
+        <v>74</v>
+      </c>
+      <c r="K221" t="s">
+        <v>74</v>
+      </c>
+      <c r="L221" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="222" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B222" t="s">
+        <v>199</v>
+      </c>
+      <c r="C222" t="s">
+        <v>170</v>
+      </c>
+      <c r="G222" t="s">
+        <v>219</v>
+      </c>
+      <c r="H222" t="s">
+        <v>74</v>
+      </c>
+      <c r="I222" t="s">
+        <v>74</v>
+      </c>
+      <c r="J222" t="s">
+        <v>74</v>
+      </c>
+      <c r="K222" t="s">
+        <v>74</v>
+      </c>
+      <c r="L222" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="223" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B223" t="s">
+        <v>199</v>
+      </c>
+      <c r="C223" t="s">
+        <v>170</v>
+      </c>
+      <c r="G223" t="s">
+        <v>220</v>
+      </c>
+      <c r="H223" t="s">
+        <v>74</v>
+      </c>
+      <c r="I223" t="s">
+        <v>74</v>
+      </c>
+      <c r="J223" t="s">
+        <v>74</v>
+      </c>
+      <c r="K223" t="s">
+        <v>74</v>
+      </c>
+      <c r="L223" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="224" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B224" t="s">
+        <v>199</v>
+      </c>
+      <c r="C224" t="s">
+        <v>170</v>
+      </c>
+      <c r="G224" t="s">
+        <v>221</v>
+      </c>
+      <c r="H224" t="s">
+        <v>74</v>
+      </c>
+      <c r="I224" t="s">
+        <v>74</v>
+      </c>
+      <c r="J224" t="s">
+        <v>74</v>
+      </c>
+      <c r="K224" t="s">
+        <v>74</v>
+      </c>
+      <c r="L224" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="225" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B225" t="s">
+        <v>199</v>
+      </c>
+      <c r="C225" t="s">
+        <v>170</v>
+      </c>
+      <c r="G225" t="s">
+        <v>222</v>
+      </c>
+      <c r="H225" t="s">
+        <v>74</v>
+      </c>
+      <c r="I225" t="s">
+        <v>74</v>
+      </c>
+      <c r="J225" t="s">
+        <v>74</v>
+      </c>
+      <c r="K225" t="s">
+        <v>74</v>
+      </c>
+      <c r="L225" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="226" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B226" t="s">
+        <v>199</v>
+      </c>
+      <c r="C226" t="s">
+        <v>170</v>
+      </c>
+      <c r="G226" t="s">
+        <v>223</v>
+      </c>
+      <c r="H226" t="s">
+        <v>74</v>
+      </c>
+      <c r="I226" t="s">
+        <v>74</v>
+      </c>
+      <c r="J226" t="s">
+        <v>74</v>
+      </c>
+      <c r="K226" t="s">
+        <v>74</v>
+      </c>
+      <c r="L226" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="227" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B227" t="s">
+        <v>199</v>
+      </c>
+      <c r="C227" t="s">
+        <v>170</v>
+      </c>
+      <c r="G227" t="s">
+        <v>224</v>
+      </c>
+      <c r="H227" t="s">
+        <v>74</v>
+      </c>
+      <c r="I227" t="s">
+        <v>74</v>
+      </c>
+      <c r="J227" t="s">
+        <v>74</v>
+      </c>
+      <c r="K227" t="s">
+        <v>74</v>
+      </c>
+      <c r="L227" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="228" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B228" t="s">
+        <v>199</v>
+      </c>
+      <c r="C228" t="s">
+        <v>170</v>
+      </c>
+      <c r="G228" t="s">
+        <v>225</v>
+      </c>
+      <c r="H228" t="s">
+        <v>74</v>
+      </c>
+      <c r="I228" t="s">
+        <v>74</v>
+      </c>
+      <c r="J228" t="s">
+        <v>74</v>
+      </c>
+      <c r="K228" t="s">
+        <v>74</v>
+      </c>
+      <c r="L228" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="229" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B229" t="s">
+        <v>199</v>
+      </c>
+      <c r="C229" t="s">
+        <v>170</v>
+      </c>
+      <c r="G229" t="s">
+        <v>226</v>
+      </c>
+      <c r="H229" t="s">
+        <v>74</v>
+      </c>
+      <c r="I229" t="s">
+        <v>74</v>
+      </c>
+      <c r="J229" t="s">
+        <v>74</v>
+      </c>
+      <c r="K229" t="s">
+        <v>74</v>
+      </c>
+      <c r="L229" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="230" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B230" t="s">
+        <v>199</v>
+      </c>
+      <c r="C230" t="s">
+        <v>170</v>
+      </c>
+      <c r="G230" t="s">
+        <v>227</v>
+      </c>
+      <c r="H230" t="s">
+        <v>74</v>
+      </c>
+      <c r="I230" t="s">
+        <v>74</v>
+      </c>
+      <c r="J230" t="s">
+        <v>74</v>
+      </c>
+      <c r="K230" t="s">
+        <v>74</v>
+      </c>
+      <c r="L230" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="231" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B231" t="s">
+        <v>199</v>
+      </c>
+      <c r="C231" t="s">
+        <v>170</v>
+      </c>
+      <c r="G231" t="s">
+        <v>228</v>
+      </c>
+      <c r="H231" t="s">
+        <v>74</v>
+      </c>
+      <c r="I231" t="s">
+        <v>74</v>
+      </c>
+      <c r="J231" t="s">
+        <v>74</v>
+      </c>
+      <c r="K231" t="s">
+        <v>74</v>
+      </c>
+      <c r="L231" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="232" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B232" t="s">
+        <v>199</v>
+      </c>
+      <c r="C232" t="s">
+        <v>170</v>
+      </c>
+      <c r="G232" t="s">
+        <v>229</v>
+      </c>
+      <c r="H232" t="s">
+        <v>74</v>
+      </c>
+      <c r="I232" t="s">
+        <v>74</v>
+      </c>
+      <c r="J232" t="s">
+        <v>74</v>
+      </c>
+      <c r="K232" t="s">
+        <v>74</v>
+      </c>
+      <c r="L232" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="233" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B233" t="s">
+        <v>199</v>
+      </c>
+      <c r="C233" t="s">
+        <v>170</v>
+      </c>
+      <c r="G233" t="s">
+        <v>173</v>
+      </c>
+      <c r="H233" t="s">
+        <v>74</v>
+      </c>
+      <c r="I233" t="s">
+        <v>74</v>
+      </c>
+      <c r="J233" t="s">
+        <v>74</v>
+      </c>
+      <c r="K233" t="s">
+        <v>74</v>
+      </c>
+      <c r="L233" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="234" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B234" t="s">
+        <v>199</v>
+      </c>
+      <c r="C234" t="s">
+        <v>170</v>
+      </c>
+      <c r="G234" t="s">
+        <v>230</v>
+      </c>
+      <c r="H234" t="s">
+        <v>74</v>
+      </c>
+      <c r="I234" t="s">
+        <v>74</v>
+      </c>
+      <c r="J234" t="s">
+        <v>74</v>
+      </c>
+      <c r="K234" t="s">
+        <v>74</v>
+      </c>
+      <c r="L234" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="235" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B235" t="s">
+        <v>199</v>
+      </c>
+      <c r="C235" t="s">
+        <v>170</v>
+      </c>
+      <c r="G235" t="s">
+        <v>175</v>
+      </c>
+      <c r="H235" t="s">
+        <v>74</v>
+      </c>
+      <c r="I235" t="s">
+        <v>74</v>
+      </c>
+      <c r="J235" t="s">
+        <v>74</v>
+      </c>
+      <c r="K235" t="s">
+        <v>74</v>
+      </c>
+      <c r="L235" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="236" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B236" t="s">
+        <v>199</v>
+      </c>
+      <c r="C236" t="s">
+        <v>170</v>
+      </c>
+      <c r="G236" t="s">
+        <v>231</v>
+      </c>
+      <c r="H236" t="s">
+        <v>74</v>
+      </c>
+      <c r="I236" t="s">
+        <v>74</v>
+      </c>
+      <c r="J236" t="s">
+        <v>74</v>
+      </c>
+      <c r="K236" t="s">
+        <v>74</v>
+      </c>
+      <c r="L236" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="237" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B237" t="s">
+        <v>199</v>
+      </c>
+      <c r="C237" t="s">
+        <v>170</v>
+      </c>
+      <c r="G237" t="s">
+        <v>172</v>
+      </c>
+      <c r="H237" t="s">
+        <v>74</v>
+      </c>
+      <c r="I237" t="s">
+        <v>74</v>
+      </c>
+      <c r="J237" t="s">
+        <v>74</v>
+      </c>
+      <c r="K237" t="s">
+        <v>74</v>
+      </c>
+      <c r="L237" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="238" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B238" t="s">
+        <v>199</v>
+      </c>
+      <c r="C238" t="s">
+        <v>170</v>
+      </c>
+      <c r="G238" t="s">
+        <v>232</v>
+      </c>
+      <c r="H238" t="s">
+        <v>74</v>
+      </c>
+      <c r="I238" t="s">
+        <v>74</v>
+      </c>
+      <c r="J238" t="s">
+        <v>74</v>
+      </c>
+      <c r="K238" t="s">
+        <v>74</v>
+      </c>
+      <c r="L238" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="239" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B239" t="s">
+        <v>199</v>
+      </c>
+      <c r="C239" t="s">
+        <v>170</v>
+      </c>
+      <c r="G239" t="s">
+        <v>233</v>
+      </c>
+      <c r="H239" t="s">
+        <v>74</v>
+      </c>
+      <c r="I239" t="s">
+        <v>74</v>
+      </c>
+      <c r="J239" t="s">
+        <v>74</v>
+      </c>
+      <c r="K239" t="s">
+        <v>74</v>
+      </c>
+      <c r="L239" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="240" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B240" t="s">
+        <v>199</v>
+      </c>
+      <c r="C240" t="s">
+        <v>170</v>
+      </c>
+      <c r="G240" t="s">
+        <v>234</v>
+      </c>
+      <c r="H240" t="s">
+        <v>74</v>
+      </c>
+      <c r="I240" t="s">
+        <v>74</v>
+      </c>
+      <c r="J240" t="s">
+        <v>74</v>
+      </c>
+      <c r="K240" t="s">
+        <v>74</v>
+      </c>
+      <c r="L240" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="241" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B241" t="s">
+        <v>199</v>
+      </c>
+      <c r="C241" t="s">
+        <v>170</v>
+      </c>
+      <c r="G241" t="s">
+        <v>235</v>
+      </c>
+      <c r="H241" t="s">
+        <v>74</v>
+      </c>
+      <c r="I241" t="s">
+        <v>74</v>
+      </c>
+      <c r="J241" t="s">
+        <v>74</v>
+      </c>
+      <c r="K241" t="s">
+        <v>74</v>
+      </c>
+      <c r="L241" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="242" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B242" t="s">
+        <v>199</v>
+      </c>
+      <c r="C242" t="s">
+        <v>170</v>
+      </c>
+      <c r="G242" t="s">
+        <v>236</v>
+      </c>
+      <c r="H242" t="s">
+        <v>74</v>
+      </c>
+      <c r="I242" t="s">
+        <v>74</v>
+      </c>
+      <c r="J242" t="s">
+        <v>74</v>
+      </c>
+      <c r="K242" t="s">
+        <v>74</v>
+      </c>
+      <c r="L242" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="243" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B243" t="s">
+        <v>199</v>
+      </c>
+      <c r="C243" t="s">
+        <v>170</v>
+      </c>
+      <c r="G243" t="s">
+        <v>237</v>
+      </c>
+      <c r="H243" t="s">
+        <v>74</v>
+      </c>
+      <c r="I243" t="s">
+        <v>74</v>
+      </c>
+      <c r="J243" t="s">
+        <v>74</v>
+      </c>
+      <c r="K243" t="s">
+        <v>74</v>
+      </c>
+      <c r="L243" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="244" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B244" t="s">
+        <v>199</v>
+      </c>
+      <c r="C244" t="s">
+        <v>171</v>
+      </c>
+      <c r="G244" t="s">
+        <v>183</v>
+      </c>
+      <c r="H244" t="s">
+        <v>74</v>
+      </c>
+      <c r="I244" t="s">
+        <v>74</v>
+      </c>
+      <c r="J244" t="s">
+        <v>74</v>
+      </c>
+      <c r="K244" t="s">
+        <v>74</v>
+      </c>
+      <c r="L244" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="245" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B245" t="s">
+        <v>199</v>
+      </c>
+      <c r="C245" t="s">
+        <v>171</v>
+      </c>
+      <c r="G245" t="s">
+        <v>238</v>
+      </c>
+      <c r="H245" t="s">
+        <v>74</v>
+      </c>
+      <c r="I245" t="s">
+        <v>74</v>
+      </c>
+      <c r="J245" t="s">
+        <v>74</v>
+      </c>
+      <c r="K245" t="s">
+        <v>74</v>
+      </c>
+      <c r="L245" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="246" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B246" t="s">
+        <v>199</v>
+      </c>
+      <c r="C246" t="s">
+        <v>171</v>
+      </c>
+      <c r="G246" t="s">
+        <v>239</v>
+      </c>
+      <c r="H246" t="s">
+        <v>74</v>
+      </c>
+      <c r="I246" t="s">
+        <v>74</v>
+      </c>
+      <c r="J246" t="s">
+        <v>74</v>
+      </c>
+      <c r="K246" t="s">
+        <v>74</v>
+      </c>
+      <c r="L246" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="247" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B247" t="s">
+        <v>199</v>
+      </c>
+      <c r="C247" t="s">
+        <v>171</v>
+      </c>
+      <c r="G247" t="s">
+        <v>240</v>
+      </c>
+      <c r="H247" t="s">
+        <v>74</v>
+      </c>
+      <c r="I247" t="s">
+        <v>74</v>
+      </c>
+      <c r="J247" t="s">
+        <v>74</v>
+      </c>
+      <c r="K247" t="s">
+        <v>74</v>
+      </c>
+      <c r="L247" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="248" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B248" t="s">
+        <v>199</v>
+      </c>
+      <c r="C248" t="s">
+        <v>171</v>
+      </c>
+      <c r="G248" t="s">
+        <v>241</v>
+      </c>
+      <c r="H248" t="s">
+        <v>74</v>
+      </c>
+      <c r="I248" t="s">
+        <v>74</v>
+      </c>
+      <c r="J248" t="s">
+        <v>74</v>
+      </c>
+      <c r="K248" t="s">
+        <v>74</v>
+      </c>
+      <c r="L248" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="249" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B249" t="s">
+        <v>199</v>
+      </c>
+      <c r="C249" t="s">
+        <v>171</v>
+      </c>
+      <c r="G249" t="s">
+        <v>216</v>
+      </c>
+      <c r="H249" t="s">
+        <v>74</v>
+      </c>
+      <c r="I249" t="s">
+        <v>74</v>
+      </c>
+      <c r="J249" t="s">
+        <v>74</v>
+      </c>
+      <c r="K249" t="s">
+        <v>74</v>
+      </c>
+      <c r="L249" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="250" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B250" t="s">
+        <v>199</v>
+      </c>
+      <c r="C250" t="s">
+        <v>171</v>
+      </c>
+      <c r="G250" t="s">
+        <v>218</v>
+      </c>
+      <c r="H250" t="s">
+        <v>74</v>
+      </c>
+      <c r="I250" t="s">
+        <v>74</v>
+      </c>
+      <c r="J250" t="s">
+        <v>74</v>
+      </c>
+      <c r="K250" t="s">
+        <v>74</v>
+      </c>
+      <c r="L250" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="251" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B251" t="s">
+        <v>199</v>
+      </c>
+      <c r="C251" t="s">
+        <v>171</v>
+      </c>
+      <c r="G251" t="s">
+        <v>242</v>
+      </c>
+      <c r="H251" t="s">
+        <v>74</v>
+      </c>
+      <c r="I251" t="s">
+        <v>74</v>
+      </c>
+      <c r="J251" t="s">
+        <v>74</v>
+      </c>
+      <c r="K251" t="s">
+        <v>74</v>
+      </c>
+      <c r="L251" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="252" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B252" t="s">
+        <v>199</v>
+      </c>
+      <c r="C252" t="s">
+        <v>171</v>
+      </c>
+      <c r="G252" t="s">
+        <v>243</v>
+      </c>
+      <c r="H252" t="s">
+        <v>74</v>
+      </c>
+      <c r="I252" t="s">
+        <v>74</v>
+      </c>
+      <c r="J252" t="s">
+        <v>74</v>
+      </c>
+      <c r="K252" t="s">
+        <v>74</v>
+      </c>
+      <c r="L252" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="253" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B253" t="s">
+        <v>199</v>
+      </c>
+      <c r="C253" t="s">
+        <v>171</v>
+      </c>
+      <c r="G253" t="s">
+        <v>219</v>
+      </c>
+      <c r="H253" t="s">
+        <v>74</v>
+      </c>
+      <c r="I253" t="s">
+        <v>74</v>
+      </c>
+      <c r="J253" t="s">
+        <v>74</v>
+      </c>
+      <c r="K253" t="s">
+        <v>74</v>
+      </c>
+      <c r="L253" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="254" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B254" t="s">
+        <v>199</v>
+      </c>
+      <c r="C254" t="s">
+        <v>171</v>
+      </c>
+      <c r="G254" t="s">
+        <v>244</v>
+      </c>
+      <c r="H254" t="s">
+        <v>74</v>
+      </c>
+      <c r="I254" t="s">
+        <v>74</v>
+      </c>
+      <c r="J254" t="s">
+        <v>74</v>
+      </c>
+      <c r="K254" t="s">
+        <v>74</v>
+      </c>
+      <c r="L254" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="255" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B255" t="s">
+        <v>199</v>
+      </c>
+      <c r="C255" t="s">
+        <v>171</v>
+      </c>
+      <c r="G255" t="s">
+        <v>245</v>
+      </c>
+      <c r="H255" t="s">
+        <v>74</v>
+      </c>
+      <c r="I255" t="s">
+        <v>74</v>
+      </c>
+      <c r="J255" t="s">
+        <v>74</v>
+      </c>
+      <c r="K255" t="s">
+        <v>74</v>
+      </c>
+      <c r="L255" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="256" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B256" t="s">
+        <v>199</v>
+      </c>
+      <c r="C256" t="s">
+        <v>171</v>
+      </c>
+      <c r="G256" t="s">
+        <v>224</v>
+      </c>
+      <c r="H256" t="s">
+        <v>74</v>
+      </c>
+      <c r="I256" t="s">
+        <v>74</v>
+      </c>
+      <c r="J256" t="s">
+        <v>74</v>
+      </c>
+      <c r="K256" t="s">
+        <v>74</v>
+      </c>
+      <c r="L256" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="257" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B257" t="s">
+        <v>199</v>
+      </c>
+      <c r="C257" t="s">
+        <v>171</v>
+      </c>
+      <c r="G257" t="s">
+        <v>225</v>
+      </c>
+      <c r="H257" t="s">
+        <v>74</v>
+      </c>
+      <c r="I257" t="s">
+        <v>74</v>
+      </c>
+      <c r="J257" t="s">
+        <v>74</v>
+      </c>
+      <c r="K257" t="s">
+        <v>74</v>
+      </c>
+      <c r="L257" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="258" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B258" t="s">
+        <v>199</v>
+      </c>
+      <c r="C258" t="s">
+        <v>171</v>
+      </c>
+      <c r="G258" t="s">
+        <v>226</v>
+      </c>
+      <c r="H258" t="s">
+        <v>74</v>
+      </c>
+      <c r="I258" t="s">
+        <v>74</v>
+      </c>
+      <c r="J258" t="s">
+        <v>74</v>
+      </c>
+      <c r="K258" t="s">
+        <v>74</v>
+      </c>
+      <c r="L258" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="259" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B259" t="s">
+        <v>199</v>
+      </c>
+      <c r="C259" t="s">
+        <v>171</v>
+      </c>
+      <c r="G259" t="s">
+        <v>229</v>
+      </c>
+      <c r="H259" t="s">
+        <v>74</v>
+      </c>
+      <c r="I259" t="s">
+        <v>74</v>
+      </c>
+      <c r="J259" t="s">
+        <v>74</v>
+      </c>
+      <c r="K259" t="s">
+        <v>74</v>
+      </c>
+      <c r="L259" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="260" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B260" t="s">
+        <v>199</v>
+      </c>
+      <c r="C260" t="s">
+        <v>171</v>
+      </c>
+      <c r="G260" t="s">
+        <v>231</v>
+      </c>
+      <c r="H260" t="s">
+        <v>74</v>
+      </c>
+      <c r="I260" t="s">
+        <v>74</v>
+      </c>
+      <c r="J260" t="s">
+        <v>74</v>
+      </c>
+      <c r="K260" t="s">
+        <v>74</v>
+      </c>
+      <c r="L260" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="261" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B261" t="s">
+        <v>199</v>
+      </c>
+      <c r="C261" t="s">
+        <v>171</v>
+      </c>
+      <c r="G261" t="s">
+        <v>246</v>
+      </c>
+      <c r="H261" t="s">
+        <v>74</v>
+      </c>
+      <c r="I261" t="s">
+        <v>74</v>
+      </c>
+      <c r="J261" t="s">
+        <v>74</v>
+      </c>
+      <c r="K261" t="s">
+        <v>74</v>
+      </c>
+      <c r="L261" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="262" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B262" t="s">
+        <v>199</v>
+      </c>
+      <c r="C262" t="s">
+        <v>171</v>
+      </c>
+      <c r="G262" t="s">
+        <v>247</v>
+      </c>
+      <c r="H262" t="s">
+        <v>74</v>
+      </c>
+      <c r="I262" t="s">
+        <v>74</v>
+      </c>
+      <c r="J262" t="s">
+        <v>74</v>
+      </c>
+      <c r="K262" t="s">
+        <v>74</v>
+      </c>
+      <c r="L262" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="263" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B263" t="s">
+        <v>199</v>
+      </c>
+      <c r="C263" t="s">
+        <v>171</v>
+      </c>
+      <c r="G263" t="s">
+        <v>172</v>
+      </c>
+      <c r="H263" t="s">
+        <v>74</v>
+      </c>
+      <c r="I263" t="s">
+        <v>74</v>
+      </c>
+      <c r="J263" t="s">
+        <v>74</v>
+      </c>
+      <c r="K263" t="s">
+        <v>74</v>
+      </c>
+      <c r="L263" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="264" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B264" t="s">
+        <v>199</v>
+      </c>
+      <c r="C264" t="s">
+        <v>171</v>
+      </c>
+      <c r="G264" t="s">
+        <v>233</v>
+      </c>
+      <c r="H264" t="s">
+        <v>74</v>
+      </c>
+      <c r="I264" t="s">
+        <v>74</v>
+      </c>
+      <c r="J264" t="s">
+        <v>74</v>
+      </c>
+      <c r="K264" t="s">
+        <v>74</v>
+      </c>
+      <c r="L264" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="265" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B265" t="s">
+        <v>199</v>
+      </c>
+      <c r="C265" t="s">
+        <v>171</v>
+      </c>
+      <c r="G265" t="s">
+        <v>248</v>
+      </c>
+      <c r="H265" t="s">
+        <v>74</v>
+      </c>
+      <c r="I265" t="s">
+        <v>74</v>
+      </c>
+      <c r="J265" t="s">
+        <v>74</v>
+      </c>
+      <c r="K265" t="s">
+        <v>74</v>
+      </c>
+      <c r="L265" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="266" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B266" t="s">
+        <v>199</v>
+      </c>
+      <c r="C266" t="s">
+        <v>171</v>
+      </c>
+      <c r="G266" t="s">
+        <v>235</v>
+      </c>
+      <c r="H266" t="s">
+        <v>74</v>
+      </c>
+      <c r="I266" t="s">
+        <v>74</v>
+      </c>
+      <c r="J266" t="s">
+        <v>74</v>
+      </c>
+      <c r="K266" t="s">
+        <v>74</v>
+      </c>
+      <c r="L266" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="267" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B267" t="s">
+        <v>199</v>
+      </c>
+      <c r="C267" t="s">
+        <v>171</v>
+      </c>
+      <c r="G267" t="s">
+        <v>249</v>
+      </c>
+      <c r="H267" t="s">
+        <v>74</v>
+      </c>
+      <c r="I267" t="s">
+        <v>74</v>
+      </c>
+      <c r="J267" t="s">
+        <v>74</v>
+      </c>
+      <c r="K267" t="s">
+        <v>74</v>
+      </c>
+      <c r="L267" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="268" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B268" t="s">
+        <v>199</v>
+      </c>
+      <c r="C268" t="s">
+        <v>171</v>
+      </c>
+      <c r="G268" t="s">
+        <v>236</v>
+      </c>
+      <c r="H268" t="s">
+        <v>74</v>
+      </c>
+      <c r="I268" t="s">
+        <v>74</v>
+      </c>
+      <c r="J268" t="s">
+        <v>74</v>
+      </c>
+      <c r="K268" t="s">
+        <v>74</v>
+      </c>
+      <c r="L268" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="269" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B269" t="s">
+        <v>199</v>
+      </c>
+      <c r="C269" t="s">
+        <v>171</v>
+      </c>
+      <c r="G269" t="s">
+        <v>250</v>
+      </c>
+      <c r="H269" t="s">
+        <v>74</v>
+      </c>
+      <c r="I269" t="s">
+        <v>74</v>
+      </c>
+      <c r="J269" t="s">
+        <v>74</v>
+      </c>
+      <c r="K269" t="s">
+        <v>74</v>
+      </c>
+      <c r="L269" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="270" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B270" t="s">
+        <v>199</v>
+      </c>
+      <c r="C270" t="s">
+        <v>171</v>
+      </c>
+      <c r="G270" t="s">
+        <v>251</v>
+      </c>
+      <c r="H270" t="s">
+        <v>74</v>
+      </c>
+      <c r="I270" t="s">
+        <v>74</v>
+      </c>
+      <c r="J270" t="s">
+        <v>74</v>
+      </c>
+      <c r="K270" t="s">
+        <v>74</v>
+      </c>
+      <c r="L270" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="271" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B271" t="s">
+        <v>199</v>
+      </c>
+      <c r="C271" t="s">
+        <v>171</v>
+      </c>
+      <c r="G271" t="s">
+        <v>252</v>
+      </c>
+      <c r="H271" t="s">
+        <v>74</v>
+      </c>
+      <c r="I271" t="s">
+        <v>74</v>
+      </c>
+      <c r="J271" t="s">
+        <v>74</v>
+      </c>
+      <c r="K271" t="s">
+        <v>74</v>
+      </c>
+      <c r="L271" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="272" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B272" t="s">
+        <v>199</v>
+      </c>
+      <c r="C272" t="s">
+        <v>171</v>
+      </c>
+      <c r="G272" t="s">
+        <v>214</v>
+      </c>
+      <c r="H272" t="s">
+        <v>74</v>
+      </c>
+      <c r="I272" t="s">
+        <v>74</v>
+      </c>
+      <c r="J272" t="s">
+        <v>74</v>
+      </c>
+      <c r="K272" t="s">
+        <v>74</v>
+      </c>
+      <c r="L272" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="273" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B273" t="s">
+        <v>199</v>
+      </c>
+      <c r="C273" t="s">
+        <v>171</v>
+      </c>
+      <c r="G273" t="s">
+        <v>215</v>
+      </c>
+      <c r="H273" t="s">
+        <v>74</v>
+      </c>
+      <c r="I273" t="s">
+        <v>74</v>
+      </c>
+      <c r="J273" t="s">
+        <v>74</v>
+      </c>
+      <c r="K273" t="s">
+        <v>74</v>
+      </c>
+      <c r="L273" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="274" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B274" t="s">
+        <v>199</v>
+      </c>
+      <c r="C274" t="s">
+        <v>171</v>
+      </c>
+      <c r="G274" t="s">
+        <v>253</v>
+      </c>
+      <c r="H274" t="s">
+        <v>74</v>
+      </c>
+      <c r="I274" t="s">
+        <v>74</v>
+      </c>
+      <c r="J274" t="s">
+        <v>74</v>
+      </c>
+      <c r="K274" t="s">
+        <v>74</v>
+      </c>
+      <c r="L274" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="275" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B275" t="s">
+        <v>199</v>
+      </c>
+      <c r="C275" t="s">
+        <v>171</v>
+      </c>
+      <c r="G275" t="s">
+        <v>176</v>
+      </c>
+      <c r="H275" t="s">
+        <v>74</v>
+      </c>
+      <c r="I275" t="s">
+        <v>74</v>
+      </c>
+      <c r="J275" t="s">
+        <v>74</v>
+      </c>
+      <c r="K275" t="s">
+        <v>74</v>
+      </c>
+      <c r="L275" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="276" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B276" t="s">
+        <v>199</v>
+      </c>
+      <c r="C276" t="s">
+        <v>171</v>
+      </c>
+      <c r="G276" t="s">
+        <v>174</v>
+      </c>
+      <c r="H276" t="s">
+        <v>74</v>
+      </c>
+      <c r="I276" t="s">
+        <v>74</v>
+      </c>
+      <c r="J276" t="s">
+        <v>74</v>
+      </c>
+      <c r="K276" t="s">
+        <v>74</v>
+      </c>
+      <c r="L276" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="277" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B277" t="s">
+        <v>199</v>
+      </c>
+      <c r="C277" t="s">
+        <v>171</v>
+      </c>
+      <c r="G277" t="s">
+        <v>217</v>
+      </c>
+      <c r="H277" t="s">
+        <v>74</v>
+      </c>
+      <c r="I277" t="s">
+        <v>74</v>
+      </c>
+      <c r="J277" t="s">
+        <v>74</v>
+      </c>
+      <c r="K277" t="s">
+        <v>74</v>
+      </c>
+      <c r="L277" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="278" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B278" t="s">
+        <v>199</v>
+      </c>
+      <c r="C278" t="s">
+        <v>171</v>
+      </c>
+      <c r="G278" t="s">
+        <v>177</v>
+      </c>
+      <c r="H278" t="s">
+        <v>74</v>
+      </c>
+      <c r="I278" t="s">
+        <v>74</v>
+      </c>
+      <c r="J278" t="s">
+        <v>74</v>
+      </c>
+      <c r="K278" t="s">
+        <v>74</v>
+      </c>
+      <c r="L278" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="279" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B279" t="s">
+        <v>199</v>
+      </c>
+      <c r="C279" t="s">
+        <v>171</v>
+      </c>
+      <c r="G279" t="s">
+        <v>220</v>
+      </c>
+      <c r="H279" t="s">
+        <v>74</v>
+      </c>
+      <c r="I279" t="s">
+        <v>74</v>
+      </c>
+      <c r="J279" t="s">
+        <v>74</v>
+      </c>
+      <c r="K279" t="s">
+        <v>74</v>
+      </c>
+      <c r="L279" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="280" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B280" t="s">
+        <v>199</v>
+      </c>
+      <c r="C280" t="s">
+        <v>171</v>
+      </c>
+      <c r="G280" t="s">
+        <v>221</v>
+      </c>
+      <c r="H280" t="s">
+        <v>74</v>
+      </c>
+      <c r="I280" t="s">
+        <v>74</v>
+      </c>
+      <c r="J280" t="s">
+        <v>74</v>
+      </c>
+      <c r="K280" t="s">
+        <v>74</v>
+      </c>
+      <c r="L280" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="281" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B281" t="s">
+        <v>199</v>
+      </c>
+      <c r="C281" t="s">
+        <v>171</v>
+      </c>
+      <c r="G281" t="s">
+        <v>222</v>
+      </c>
+      <c r="H281" t="s">
+        <v>74</v>
+      </c>
+      <c r="I281" t="s">
+        <v>74</v>
+      </c>
+      <c r="J281" t="s">
+        <v>74</v>
+      </c>
+      <c r="K281" t="s">
+        <v>74</v>
+      </c>
+      <c r="L281" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="282" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B282" t="s">
+        <v>199</v>
+      </c>
+      <c r="C282" t="s">
+        <v>171</v>
+      </c>
+      <c r="G282" t="s">
+        <v>254</v>
+      </c>
+      <c r="H282" t="s">
+        <v>74</v>
+      </c>
+      <c r="I282" t="s">
+        <v>74</v>
+      </c>
+      <c r="J282" t="s">
+        <v>74</v>
+      </c>
+      <c r="K282" t="s">
+        <v>74</v>
+      </c>
+      <c r="L282" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="283" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B283" t="s">
+        <v>199</v>
+      </c>
+      <c r="C283" t="s">
+        <v>171</v>
+      </c>
+      <c r="G283" t="s">
+        <v>227</v>
+      </c>
+      <c r="H283" t="s">
+        <v>74</v>
+      </c>
+      <c r="I283" t="s">
+        <v>74</v>
+      </c>
+      <c r="J283" t="s">
+        <v>74</v>
+      </c>
+      <c r="K283" t="s">
+        <v>74</v>
+      </c>
+      <c r="L283" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="284" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B284" t="s">
+        <v>199</v>
+      </c>
+      <c r="C284" t="s">
+        <v>171</v>
+      </c>
+      <c r="G284" t="s">
+        <v>228</v>
+      </c>
+      <c r="H284" t="s">
+        <v>74</v>
+      </c>
+      <c r="I284" t="s">
+        <v>74</v>
+      </c>
+      <c r="J284" t="s">
+        <v>74</v>
+      </c>
+      <c r="K284" t="s">
+        <v>74</v>
+      </c>
+      <c r="L284" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="285" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B285" t="s">
+        <v>199</v>
+      </c>
+      <c r="C285" t="s">
+        <v>171</v>
+      </c>
+      <c r="G285" t="s">
+        <v>255</v>
+      </c>
+      <c r="H285" t="s">
+        <v>74</v>
+      </c>
+      <c r="I285" t="s">
+        <v>74</v>
+      </c>
+      <c r="J285" t="s">
+        <v>74</v>
+      </c>
+      <c r="K285" t="s">
+        <v>74</v>
+      </c>
+      <c r="L285" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="286" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B286" t="s">
+        <v>199</v>
+      </c>
+      <c r="C286" t="s">
+        <v>171</v>
+      </c>
+      <c r="G286" t="s">
+        <v>173</v>
+      </c>
+      <c r="H286" t="s">
+        <v>74</v>
+      </c>
+      <c r="I286" t="s">
+        <v>74</v>
+      </c>
+      <c r="J286" t="s">
+        <v>74</v>
+      </c>
+      <c r="K286" t="s">
+        <v>74</v>
+      </c>
+      <c r="L286" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="287" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B287" t="s">
+        <v>199</v>
+      </c>
+      <c r="C287" t="s">
+        <v>171</v>
+      </c>
+      <c r="G287" t="s">
+        <v>193</v>
+      </c>
+      <c r="H287" t="s">
+        <v>74</v>
+      </c>
+      <c r="I287" t="s">
+        <v>74</v>
+      </c>
+      <c r="J287" t="s">
+        <v>74</v>
+      </c>
+      <c r="K287" t="s">
+        <v>74</v>
+      </c>
+      <c r="L287" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="288" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B288" t="s">
+        <v>199</v>
+      </c>
+      <c r="C288" t="s">
+        <v>171</v>
+      </c>
+      <c r="G288" t="s">
+        <v>188</v>
+      </c>
+      <c r="H288" t="s">
+        <v>74</v>
+      </c>
+      <c r="I288" t="s">
+        <v>74</v>
+      </c>
+      <c r="J288" t="s">
+        <v>74</v>
+      </c>
+      <c r="K288" t="s">
+        <v>74</v>
+      </c>
+      <c r="L288" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="289" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B289" t="s">
+        <v>199</v>
+      </c>
+      <c r="C289" t="s">
+        <v>171</v>
+      </c>
+      <c r="G289" t="s">
+        <v>230</v>
+      </c>
+      <c r="H289" t="s">
+        <v>74</v>
+      </c>
+      <c r="I289" t="s">
+        <v>74</v>
+      </c>
+      <c r="J289" t="s">
+        <v>74</v>
+      </c>
+      <c r="K289" t="s">
+        <v>74</v>
+      </c>
+      <c r="L289" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="290" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B290" t="s">
+        <v>199</v>
+      </c>
+      <c r="C290" t="s">
+        <v>171</v>
+      </c>
+      <c r="G290" t="s">
+        <v>175</v>
+      </c>
+      <c r="H290" t="s">
+        <v>74</v>
+      </c>
+      <c r="I290" t="s">
+        <v>74</v>
+      </c>
+      <c r="J290" t="s">
+        <v>74</v>
+      </c>
+      <c r="K290" t="s">
+        <v>74</v>
+      </c>
+      <c r="L290" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="291" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B291" t="s">
+        <v>199</v>
+      </c>
+      <c r="C291" t="s">
+        <v>171</v>
+      </c>
+      <c r="G291" t="s">
+        <v>232</v>
+      </c>
+      <c r="H291" t="s">
+        <v>74</v>
+      </c>
+      <c r="I291" t="s">
+        <v>74</v>
+      </c>
+      <c r="J291" t="s">
+        <v>74</v>
+      </c>
+      <c r="K291" t="s">
+        <v>74</v>
+      </c>
+      <c r="L291" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="292" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B292" t="s">
+        <v>199</v>
+      </c>
+      <c r="C292" t="s">
+        <v>171</v>
+      </c>
+      <c r="G292" t="s">
+        <v>237</v>
+      </c>
+      <c r="H292" t="s">
+        <v>74</v>
+      </c>
+      <c r="I292" t="s">
+        <v>74</v>
+      </c>
+      <c r="J292" t="s">
+        <v>74</v>
+      </c>
+      <c r="K292" t="s">
+        <v>74</v>
+      </c>
+      <c r="L292" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="293" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B293" t="s">
+        <v>199</v>
+      </c>
+      <c r="C293" t="s">
+        <v>171</v>
+      </c>
+      <c r="G293" t="s">
+        <v>191</v>
+      </c>
+      <c r="H293" t="s">
+        <v>74</v>
+      </c>
+      <c r="I293" t="s">
+        <v>74</v>
+      </c>
+      <c r="J293" t="s">
+        <v>74</v>
+      </c>
+      <c r="K293" t="s">
+        <v>74</v>
+      </c>
+      <c r="L293" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="294" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B294" t="s">
+        <v>199</v>
+      </c>
+      <c r="C294" t="s">
+        <v>171</v>
+      </c>
+      <c r="G294" t="s">
+        <v>189</v>
+      </c>
+      <c r="H294" t="s">
+        <v>74</v>
+      </c>
+      <c r="I294" t="s">
+        <v>74</v>
+      </c>
+      <c r="J294" t="s">
+        <v>74</v>
+      </c>
+      <c r="K294" t="s">
+        <v>74</v>
+      </c>
+      <c r="L294" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="295" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B295" t="s">
+        <v>199</v>
+      </c>
+      <c r="C295" t="s">
+        <v>171</v>
+      </c>
+      <c r="G295" t="s">
+        <v>190</v>
+      </c>
+      <c r="H295" t="s">
+        <v>74</v>
+      </c>
+      <c r="I295" t="s">
+        <v>74</v>
+      </c>
+      <c r="J295" t="s">
+        <v>74</v>
+      </c>
+      <c r="K295" t="s">
+        <v>74</v>
+      </c>
+      <c r="L295" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="296" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B296" t="s">
+        <v>199</v>
+      </c>
+      <c r="C296" t="s">
+        <v>171</v>
+      </c>
+      <c r="G296" t="s">
+        <v>192</v>
+      </c>
+      <c r="H296" t="s">
+        <v>74</v>
+      </c>
+      <c r="I296" t="s">
+        <v>74</v>
+      </c>
+      <c r="J296" t="s">
+        <v>74</v>
+      </c>
+      <c r="K296" t="s">
+        <v>74</v>
+      </c>
+      <c r="L296" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="297" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B297" t="s">
+        <v>199</v>
+      </c>
+      <c r="C297" t="s">
+        <v>171</v>
+      </c>
+      <c r="G297" t="s">
+        <v>256</v>
+      </c>
+      <c r="H297" t="s">
+        <v>74</v>
+      </c>
+      <c r="I297" t="s">
+        <v>74</v>
+      </c>
+      <c r="J297" t="s">
+        <v>74</v>
+      </c>
+      <c r="K297" t="s">
+        <v>74</v>
+      </c>
+      <c r="L297" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="298" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B298" t="s">
+        <v>205</v>
+      </c>
+      <c r="E298" t="s">
+        <v>168</v>
+      </c>
+      <c r="F298" t="s">
+        <v>169</v>
+      </c>
+      <c r="G298" t="s">
+        <v>257</v>
+      </c>
+      <c r="H298" t="s">
+        <v>26</v>
+      </c>
+      <c r="I298" t="s">
+        <v>26</v>
+      </c>
+      <c r="J298" t="s">
+        <v>74</v>
+      </c>
+      <c r="K298" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="299" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B299" t="s">
+        <v>205</v>
+      </c>
+      <c r="E299" t="s">
+        <v>168</v>
+      </c>
+      <c r="F299" t="s">
+        <v>169</v>
+      </c>
+      <c r="G299" t="s">
+        <v>258</v>
+      </c>
+      <c r="H299" t="s">
+        <v>26</v>
+      </c>
+      <c r="I299" t="s">
+        <v>26</v>
+      </c>
+      <c r="J299" t="s">
+        <v>74</v>
+      </c>
+      <c r="K299" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="300" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B300" t="s">
+        <v>205</v>
+      </c>
+      <c r="E300" t="s">
+        <v>168</v>
+      </c>
+      <c r="F300" t="s">
+        <v>169</v>
+      </c>
+      <c r="G300" t="s">
+        <v>259</v>
+      </c>
+      <c r="H300" t="s">
+        <v>26</v>
+      </c>
+      <c r="I300" t="s">
+        <v>26</v>
+      </c>
+      <c r="J300" t="s">
+        <v>74</v>
+      </c>
+      <c r="K300" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="301" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B301" t="s">
+        <v>203</v>
+      </c>
+      <c r="C301" t="s">
+        <v>171</v>
+      </c>
+      <c r="D301" t="s">
+        <v>260</v>
+      </c>
+      <c r="H301" t="s">
+        <v>26</v>
+      </c>
+      <c r="I301" t="s">
+        <v>26</v>
+      </c>
+      <c r="J301" t="s">
+        <v>74</v>
+      </c>
+      <c r="K301" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="302" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B302" t="s">
+        <v>203</v>
+      </c>
+      <c r="C302" t="s">
+        <v>171</v>
+      </c>
+      <c r="D302" t="s">
+        <v>261</v>
+      </c>
+      <c r="H302" t="s">
+        <v>26</v>
+      </c>
+      <c r="I302" t="s">
+        <v>26</v>
+      </c>
+      <c r="J302" t="s">
+        <v>74</v>
+      </c>
+      <c r="K302" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="303" spans="2:12" ht="21.75" customHeight="1">
+      <c r="B303" t="s">
+        <v>203</v>
+      </c>
+      <c r="C303" t="s">
+        <v>171</v>
+      </c>
+      <c r="D303" t="s">
+        <v>262</v>
+      </c>
+      <c r="H303" t="s">
+        <v>26</v>
+      </c>
+      <c r="I303" t="s">
+        <v>26</v>
+      </c>
+      <c r="J303" t="s">
+        <v>74</v>
+      </c>
+      <c r="K303" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3712,7 +11617,7 @@
           <x14:formula1>
             <xm:f>'Reference Data'!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A1048576</xm:sqref>
+          <xm:sqref>A2:A45 A304:A1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
